--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.182451284844376</v>
+        <v>3.182451284844092</v>
       </c>
       <c r="C2">
-        <v>0.8397571375596726</v>
+        <v>0.8397571375610937</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2698550926392684</v>
+        <v>0.2698550926392045</v>
       </c>
       <c r="F2">
-        <v>6.758587656213251</v>
+        <v>6.75858765621328</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.800414213353875</v>
+        <v>2.800414213353932</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2942696121632125</v>
+        <v>0.2942696121632373</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.712283094007489</v>
+        <v>2.712283094007375</v>
       </c>
       <c r="C3">
-        <v>0.7127005935755335</v>
+        <v>0.7127005935747945</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2285574705076741</v>
+        <v>0.2285574705075462</v>
       </c>
       <c r="F3">
         <v>5.794998608240519</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.411532761599332</v>
+        <v>2.411532761599219</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2416003859105302</v>
+        <v>0.2416003859105054</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.433436556759489</v>
+        <v>2.433436556759375</v>
       </c>
       <c r="C4">
-        <v>0.6375204227789197</v>
+        <v>0.6375204227788345</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.204340744738694</v>
+        <v>0.2043407447387438</v>
       </c>
       <c r="F4">
-        <v>5.224302800135092</v>
+        <v>5.224302800135121</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.181959356426233</v>
+        <v>2.181959356426333</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2115116306374354</v>
+        <v>0.211511630637446</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.321862844124269</v>
+        <v>2.32186284412353</v>
       </c>
       <c r="C5">
-        <v>0.6074687246550354</v>
+        <v>0.6074687246550923</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1947048830984315</v>
+        <v>0.1947048830984244</v>
       </c>
       <c r="F5">
-        <v>4.996050532959572</v>
+        <v>4.996050532959629</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.09028268929427</v>
+        <v>2.090282689294227</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1997157424642637</v>
+        <v>0.1997157424642459</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303449452973609</v>
+        <v>2.303449452973439</v>
       </c>
       <c r="C6">
-        <v>0.6025106240537639</v>
+        <v>0.6025106240540765</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1931174917130676</v>
+        <v>0.1931174917129752</v>
       </c>
       <c r="F6">
-        <v>4.958384595347724</v>
+        <v>4.958384595347582</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.075161692112388</v>
+        <v>2.075161692112289</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1977825526680519</v>
+        <v>0.1977825526680128</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.431924004185078</v>
+        <v>2.431924004185248</v>
       </c>
       <c r="C7">
-        <v>0.6371129214600728</v>
+        <v>0.6371129214606128</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2042099151970262</v>
+        <v>0.2042099151971115</v>
       </c>
       <c r="F7">
         <v>5.22120821253796</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.180715903125076</v>
+        <v>2.180715903125147</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2113507822762024</v>
+        <v>0.2113507822762202</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.018024268291867</v>
+        <v>3.018024268292095</v>
       </c>
       <c r="C8">
-        <v>0.7952765873729675</v>
+        <v>0.7952765873725411</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2553434816955118</v>
+        <v>0.2553434816954621</v>
       </c>
       <c r="F8">
-        <v>6.42136627714811</v>
+        <v>6.42136627714828</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.664131149502694</v>
+        <v>2.664131149502737</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2755758571773725</v>
+        <v>0.2755758571773512</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.268374528093716</v>
+        <v>4.268374528094114</v>
       </c>
       <c r="C9">
-        <v>1.13501313538552</v>
+        <v>1.135013135385179</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.367716385056589</v>
+        <v>0.3677163850566103</v>
       </c>
       <c r="F9">
-        <v>8.994635614543853</v>
+        <v>8.994635614544165</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.709665195330686</v>
+        <v>3.709665195330984</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4251204389149059</v>
+        <v>0.4251204389149343</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.289727198919991</v>
+        <v>5.289727198919763</v>
       </c>
       <c r="C10">
-        <v>1.415505535844545</v>
+        <v>1.415505535842669</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4633074438815754</v>
+        <v>0.4633074438817033</v>
       </c>
       <c r="F10">
-        <v>11.11677676628659</v>
+        <v>11.1167767662867</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.582318307431706</v>
+        <v>4.582318307431791</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5601617186924486</v>
+        <v>0.560161718692477</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.789741201822267</v>
+        <v>5.789741201822153</v>
       </c>
       <c r="C11">
-        <v>1.553954486359771</v>
+        <v>1.553954486359657</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5115053306228461</v>
+        <v>0.5115053306228887</v>
       </c>
       <c r="F11">
-        <v>12.16422569299505</v>
+        <v>12.1642256929951</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.016771690048785</v>
+        <v>5.016771690048898</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6307022154925228</v>
+        <v>0.6307022154925903</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.985720304072061</v>
+        <v>5.985720304072231</v>
       </c>
       <c r="C12">
-        <v>1.608437361741267</v>
+        <v>1.608437361740357</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5306667367287616</v>
+        <v>0.5306667367287545</v>
       </c>
       <c r="F12">
-        <v>12.57651142370298</v>
+        <v>12.57651142370304</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.188477140484622</v>
+        <v>5.188477140484736</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6591777958476221</v>
+        <v>0.6591777958476648</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.943187310914936</v>
+        <v>5.943187310915107</v>
       </c>
       <c r="C13">
-        <v>1.59660232595229</v>
+        <v>1.596602325953086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5264948506112717</v>
+        <v>0.5264948506114138</v>
       </c>
       <c r="F13">
-        <v>12.48694651340139</v>
+        <v>12.48694651340151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.151141787332421</v>
+        <v>5.151141787332477</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6529574976958195</v>
+        <v>0.6529574976958727</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.805720834165015</v>
+        <v>5.805720834164276</v>
       </c>
       <c r="C14">
-        <v>1.558392183186584</v>
+        <v>1.55839218318755</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5130618685033568</v>
+        <v>0.5130618685034207</v>
       </c>
       <c r="F14">
-        <v>12.19780432132154</v>
+        <v>12.1978043213216</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.030741294737993</v>
+        <v>5.030741294737908</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6330063510266584</v>
+        <v>0.6330063510266797</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.722437314122317</v>
+        <v>5.722437314122828</v>
       </c>
       <c r="C15">
-        <v>1.535272610690072</v>
+        <v>1.535272610689276</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5049606535917945</v>
+        <v>0.5049606535916524</v>
       </c>
       <c r="F15">
-        <v>12.02287023804212</v>
+        <v>12.02287023804206</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.957992979204334</v>
+        <v>4.957992979204278</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.621031756441063</v>
+        <v>0.6210317564410488</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.257883341370302</v>
+        <v>5.257883341370643</v>
       </c>
       <c r="C16">
-        <v>1.406714580242237</v>
+        <v>1.406714580243715</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4602704221088274</v>
+        <v>0.4602704221087563</v>
       </c>
       <c r="F16">
-        <v>11.0502739040075</v>
+        <v>11.05027390400761</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5557701057854736</v>
+        <v>0.5557701057854061</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.982912916519695</v>
+        <v>4.982912916520036</v>
       </c>
       <c r="C17">
-        <v>1.33093155947472</v>
+        <v>1.330931559473584</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.434202198556477</v>
+        <v>0.4342021985563775</v>
       </c>
       <c r="F17">
-        <v>10.47698399520644</v>
+        <v>10.47698399520675</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.318180802646793</v>
+        <v>4.318180802647049</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5183413064112656</v>
+        <v>0.5183413064112159</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.827973265920377</v>
+        <v>4.827973265920093</v>
       </c>
       <c r="C18">
-        <v>1.288327379575549</v>
+        <v>1.288327379575605</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4196343719361195</v>
+        <v>0.4196343719362901</v>
       </c>
       <c r="F18">
-        <v>10.1546784545059</v>
+        <v>10.15467845450581</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.185463897239288</v>
+        <v>4.185463897239316</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4976360106196331</v>
+        <v>0.4976360106195976</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.7760262948442</v>
+        <v>4.77602629484403</v>
       </c>
       <c r="C19">
-        <v>1.274058815967464</v>
+        <v>1.274058815966555</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4147693155617276</v>
+        <v>0.4147693155618555</v>
       </c>
       <c r="F19">
-        <v>10.04673161587934</v>
+        <v>10.04673161587959</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.141065537097091</v>
+        <v>4.14106553709712</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.01184149399279</v>
+        <v>5.011841493993018</v>
       </c>
       <c r="C20">
-        <v>1.338893855279707</v>
+        <v>1.338893855278172</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.436931701985003</v>
+        <v>0.4369317019848893</v>
       </c>
       <c r="F20">
-        <v>10.53721840765681</v>
+        <v>10.53721840765675</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.343009328412279</v>
+        <v>4.343009328412251</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5222377451018474</v>
+        <v>0.5222377451018119</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.845903089934893</v>
+        <v>5.845903089935291</v>
       </c>
       <c r="C21">
-        <v>1.569554844887193</v>
+        <v>1.569554844887989</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5169804743702358</v>
+        <v>0.516980474370321</v>
       </c>
       <c r="F21">
-        <v>12.28227045958488</v>
+        <v>12.28227045958482</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.638814137317862</v>
+        <v>0.638814137317933</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.43082858734283</v>
+        <v>6.430828587342262</v>
       </c>
       <c r="C22">
-        <v>1.73265647439996</v>
+        <v>1.732656474399448</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5747819475736691</v>
+        <v>0.5747819475736762</v>
       </c>
       <c r="F22">
-        <v>13.51684623433977</v>
+        <v>13.51684623433931</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.581613983238839</v>
+        <v>5.581613983238469</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7256385064470763</v>
+        <v>0.7256385064470408</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>6.114339337666138</v>
       </c>
       <c r="C23">
-        <v>1.644262905624942</v>
+        <v>1.644262905625112</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0.5433280504361591</v>
       </c>
       <c r="F23">
-        <v>12.84765536038526</v>
+        <v>12.84765536038572</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.301620193119305</v>
+        <v>5.301620193119646</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6781250375321193</v>
+        <v>0.6781250375320766</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.998753198631107</v>
+        <v>4.998753198631334</v>
       </c>
       <c r="C24">
-        <v>1.335291131996087</v>
+        <v>1.335291131996257</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4356964041583922</v>
+        <v>0.4356964041583495</v>
       </c>
       <c r="F24">
-        <v>10.50996400328017</v>
+        <v>10.50996400327998</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.331774105805806</v>
+        <v>4.331774105805636</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5204736644092627</v>
+        <v>0.5204736644092591</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.915647840242912</v>
+        <v>3.915647840242457</v>
       </c>
       <c r="C25">
-        <v>1.03880174979912</v>
+        <v>1.038801749799234</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0.3355277693795244</v>
       </c>
       <c r="F25">
-        <v>8.266375120882429</v>
+        <v>8.266375120882401</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.412424280995211</v>
+        <v>3.41242428099514</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3812041935362309</v>
+        <v>0.3812041935361989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.182451284844092</v>
+        <v>3.182451284844376</v>
       </c>
       <c r="C2">
-        <v>0.8397571375610937</v>
+        <v>0.8397571375596726</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2698550926392045</v>
+        <v>0.2698550926392684</v>
       </c>
       <c r="F2">
-        <v>6.75858765621328</v>
+        <v>6.758587656213251</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.800414213353932</v>
+        <v>2.800414213353875</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2942696121632373</v>
+        <v>0.2942696121632125</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.712283094007375</v>
+        <v>2.712283094007489</v>
       </c>
       <c r="C3">
-        <v>0.7127005935747945</v>
+        <v>0.7127005935755335</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2285574705075462</v>
+        <v>0.2285574705076741</v>
       </c>
       <c r="F3">
         <v>5.794998608240519</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.411532761599219</v>
+        <v>2.411532761599332</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2416003859105054</v>
+        <v>0.2416003859105302</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.433436556759375</v>
+        <v>2.433436556759489</v>
       </c>
       <c r="C4">
-        <v>0.6375204227788345</v>
+        <v>0.6375204227789197</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2043407447387438</v>
+        <v>0.204340744738694</v>
       </c>
       <c r="F4">
-        <v>5.224302800135121</v>
+        <v>5.224302800135092</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.181959356426333</v>
+        <v>2.181959356426233</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.211511630637446</v>
+        <v>0.2115116306374354</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.32186284412353</v>
+        <v>2.321862844124269</v>
       </c>
       <c r="C5">
-        <v>0.6074687246550923</v>
+        <v>0.6074687246550354</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1947048830984244</v>
+        <v>0.1947048830984315</v>
       </c>
       <c r="F5">
-        <v>4.996050532959629</v>
+        <v>4.996050532959572</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.090282689294227</v>
+        <v>2.09028268929427</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1997157424642459</v>
+        <v>0.1997157424642637</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303449452973439</v>
+        <v>2.303449452973609</v>
       </c>
       <c r="C6">
-        <v>0.6025106240540765</v>
+        <v>0.6025106240537639</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1931174917129752</v>
+        <v>0.1931174917130676</v>
       </c>
       <c r="F6">
-        <v>4.958384595347582</v>
+        <v>4.958384595347724</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.075161692112289</v>
+        <v>2.075161692112388</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1977825526680128</v>
+        <v>0.1977825526680519</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.431924004185248</v>
+        <v>2.431924004185078</v>
       </c>
       <c r="C7">
-        <v>0.6371129214606128</v>
+        <v>0.6371129214600728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2042099151971115</v>
+        <v>0.2042099151970262</v>
       </c>
       <c r="F7">
         <v>5.22120821253796</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.180715903125147</v>
+        <v>2.180715903125076</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2113507822762202</v>
+        <v>0.2113507822762024</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.018024268292095</v>
+        <v>3.018024268291867</v>
       </c>
       <c r="C8">
-        <v>0.7952765873725411</v>
+        <v>0.7952765873729675</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2553434816954621</v>
+        <v>0.2553434816955118</v>
       </c>
       <c r="F8">
-        <v>6.42136627714828</v>
+        <v>6.42136627714811</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.664131149502737</v>
+        <v>2.664131149502694</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2755758571773512</v>
+        <v>0.2755758571773725</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.268374528094114</v>
+        <v>4.268374528093716</v>
       </c>
       <c r="C9">
-        <v>1.135013135385179</v>
+        <v>1.13501313538552</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3677163850566103</v>
+        <v>0.367716385056589</v>
       </c>
       <c r="F9">
-        <v>8.994635614544165</v>
+        <v>8.994635614543853</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.709665195330984</v>
+        <v>3.709665195330686</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4251204389149343</v>
+        <v>0.4251204389149059</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.289727198919763</v>
+        <v>5.289727198919991</v>
       </c>
       <c r="C10">
-        <v>1.415505535842669</v>
+        <v>1.415505535844545</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4633074438817033</v>
+        <v>0.4633074438815754</v>
       </c>
       <c r="F10">
-        <v>11.1167767662867</v>
+        <v>11.11677676628659</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.582318307431791</v>
+        <v>4.582318307431706</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.560161718692477</v>
+        <v>0.5601617186924486</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.789741201822153</v>
+        <v>5.789741201822267</v>
       </c>
       <c r="C11">
-        <v>1.553954486359657</v>
+        <v>1.553954486359771</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5115053306228887</v>
+        <v>0.5115053306228461</v>
       </c>
       <c r="F11">
-        <v>12.1642256929951</v>
+        <v>12.16422569299505</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.016771690048898</v>
+        <v>5.016771690048785</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6307022154925903</v>
+        <v>0.6307022154925228</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.985720304072231</v>
+        <v>5.985720304072061</v>
       </c>
       <c r="C12">
-        <v>1.608437361740357</v>
+        <v>1.608437361741267</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5306667367287545</v>
+        <v>0.5306667367287616</v>
       </c>
       <c r="F12">
-        <v>12.57651142370304</v>
+        <v>12.57651142370298</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.188477140484736</v>
+        <v>5.188477140484622</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6591777958476648</v>
+        <v>0.6591777958476221</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.943187310915107</v>
+        <v>5.943187310914936</v>
       </c>
       <c r="C13">
-        <v>1.596602325953086</v>
+        <v>1.59660232595229</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5264948506114138</v>
+        <v>0.5264948506112717</v>
       </c>
       <c r="F13">
-        <v>12.48694651340151</v>
+        <v>12.48694651340139</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.151141787332477</v>
+        <v>5.151141787332421</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6529574976958727</v>
+        <v>0.6529574976958195</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.805720834164276</v>
+        <v>5.805720834165015</v>
       </c>
       <c r="C14">
-        <v>1.55839218318755</v>
+        <v>1.558392183186584</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5130618685034207</v>
+        <v>0.5130618685033568</v>
       </c>
       <c r="F14">
-        <v>12.1978043213216</v>
+        <v>12.19780432132154</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.030741294737908</v>
+        <v>5.030741294737993</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6330063510266797</v>
+        <v>0.6330063510266584</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.722437314122828</v>
+        <v>5.722437314122317</v>
       </c>
       <c r="C15">
-        <v>1.535272610689276</v>
+        <v>1.535272610690072</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5049606535916524</v>
+        <v>0.5049606535917945</v>
       </c>
       <c r="F15">
-        <v>12.02287023804206</v>
+        <v>12.02287023804212</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.957992979204278</v>
+        <v>4.957992979204334</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6210317564410488</v>
+        <v>0.621031756441063</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.257883341370643</v>
+        <v>5.257883341370302</v>
       </c>
       <c r="C16">
-        <v>1.406714580243715</v>
+        <v>1.406714580242237</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4602704221087563</v>
+        <v>0.4602704221088274</v>
       </c>
       <c r="F16">
-        <v>11.05027390400761</v>
+        <v>11.0502739040075</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5557701057854061</v>
+        <v>0.5557701057854736</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.982912916520036</v>
+        <v>4.982912916519695</v>
       </c>
       <c r="C17">
-        <v>1.330931559473584</v>
+        <v>1.33093155947472</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4342021985563775</v>
+        <v>0.434202198556477</v>
       </c>
       <c r="F17">
-        <v>10.47698399520675</v>
+        <v>10.47698399520644</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.318180802647049</v>
+        <v>4.318180802646793</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5183413064112159</v>
+        <v>0.5183413064112656</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.827973265920093</v>
+        <v>4.827973265920377</v>
       </c>
       <c r="C18">
-        <v>1.288327379575605</v>
+        <v>1.288327379575549</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4196343719362901</v>
+        <v>0.4196343719361195</v>
       </c>
       <c r="F18">
-        <v>10.15467845450581</v>
+        <v>10.1546784545059</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.185463897239316</v>
+        <v>4.185463897239288</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4976360106195976</v>
+        <v>0.4976360106196331</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.77602629484403</v>
+        <v>4.7760262948442</v>
       </c>
       <c r="C19">
-        <v>1.274058815966555</v>
+        <v>1.274058815967464</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4147693155618555</v>
+        <v>0.4147693155617276</v>
       </c>
       <c r="F19">
-        <v>10.04673161587959</v>
+        <v>10.04673161587934</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.14106553709712</v>
+        <v>4.141065537097091</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.011841493993018</v>
+        <v>5.01184149399279</v>
       </c>
       <c r="C20">
-        <v>1.338893855278172</v>
+        <v>1.338893855279707</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4369317019848893</v>
+        <v>0.436931701985003</v>
       </c>
       <c r="F20">
-        <v>10.53721840765675</v>
+        <v>10.53721840765681</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.343009328412251</v>
+        <v>4.343009328412279</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5222377451018119</v>
+        <v>0.5222377451018474</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.845903089935291</v>
+        <v>5.845903089934893</v>
       </c>
       <c r="C21">
-        <v>1.569554844887989</v>
+        <v>1.569554844887193</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.516980474370321</v>
+        <v>0.5169804743702358</v>
       </c>
       <c r="F21">
-        <v>12.28227045958482</v>
+        <v>12.28227045958488</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.638814137317933</v>
+        <v>0.638814137317862</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.430828587342262</v>
+        <v>6.43082858734283</v>
       </c>
       <c r="C22">
-        <v>1.732656474399448</v>
+        <v>1.73265647439996</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5747819475736762</v>
+        <v>0.5747819475736691</v>
       </c>
       <c r="F22">
-        <v>13.51684623433931</v>
+        <v>13.51684623433977</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.581613983238469</v>
+        <v>5.581613983238839</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7256385064470408</v>
+        <v>0.7256385064470763</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>6.114339337666138</v>
       </c>
       <c r="C23">
-        <v>1.644262905625112</v>
+        <v>1.644262905624942</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0.5433280504361591</v>
       </c>
       <c r="F23">
-        <v>12.84765536038572</v>
+        <v>12.84765536038526</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.301620193119646</v>
+        <v>5.301620193119305</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6781250375320766</v>
+        <v>0.6781250375321193</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.998753198631334</v>
+        <v>4.998753198631107</v>
       </c>
       <c r="C24">
-        <v>1.335291131996257</v>
+        <v>1.335291131996087</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4356964041583495</v>
+        <v>0.4356964041583922</v>
       </c>
       <c r="F24">
-        <v>10.50996400327998</v>
+        <v>10.50996400328017</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.331774105805636</v>
+        <v>4.331774105805806</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5204736644092591</v>
+        <v>0.5204736644092627</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.915647840242457</v>
+        <v>3.915647840242912</v>
       </c>
       <c r="C25">
-        <v>1.038801749799234</v>
+        <v>1.03880174979912</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0.3355277693795244</v>
       </c>
       <c r="F25">
-        <v>8.266375120882401</v>
+        <v>8.266375120882429</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.41242428099514</v>
+        <v>3.412424280995211</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3812041935361989</v>
+        <v>0.3812041935362309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.182451284844376</v>
+        <v>3.143022212482833</v>
       </c>
       <c r="C2">
-        <v>0.8397571375596726</v>
+        <v>0.8207733600932841</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2698550926392684</v>
+        <v>0.2746776353677234</v>
       </c>
       <c r="F2">
-        <v>6.758587656213251</v>
+        <v>6.746950909288046</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007700647340330468</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.800414213353875</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.803444677153678</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2942696121632125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.2887776623263321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.712283094007489</v>
+        <v>2.680644930766107</v>
       </c>
       <c r="C3">
-        <v>0.7127005935755335</v>
+        <v>0.6963840601497111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2285574705076741</v>
+        <v>0.2331977659986393</v>
       </c>
       <c r="F3">
-        <v>5.794998608240519</v>
+        <v>5.787971401219181</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007835444259705485</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.411532761599332</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.416685897742582</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2416003859105302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.2369508582318005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.433436556759489</v>
+        <v>2.406487789254186</v>
       </c>
       <c r="C4">
-        <v>0.6375204227789197</v>
+        <v>0.6228111464053825</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.204340744738694</v>
+        <v>0.2088526010684362</v>
       </c>
       <c r="F4">
-        <v>5.224302800135092</v>
+        <v>5.219869507967417</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007919041274892708</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.181959356426233</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.188281249189544</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2115116306374354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.2073565082474431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.321862844124269</v>
+        <v>2.296810662681196</v>
       </c>
       <c r="C5">
-        <v>0.6074687246550354</v>
+        <v>0.5934099533384085</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1947048830984315</v>
+        <v>0.1991607069037045</v>
       </c>
       <c r="F5">
-        <v>4.996050532959572</v>
+        <v>4.992628174838245</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007953387081766124</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.09028268929427</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.097053939106075</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1997157424642637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1957581838105007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303449452973609</v>
+        <v>2.278711568449012</v>
       </c>
       <c r="C6">
-        <v>0.6025106240537639</v>
+        <v>0.5885596805842397</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1931174917130676</v>
+        <v>0.1975637996299682</v>
       </c>
       <c r="F6">
-        <v>4.958384595347724</v>
+        <v>4.955127651050134</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007959108912983224</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.075161692112388</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.082006104927686</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1977825526680519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.1938576088598438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.431924004185078</v>
+        <v>2.405000861918722</v>
       </c>
       <c r="C7">
-        <v>0.6371129214600728</v>
+        <v>0.6224124323383649</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2042099151970262</v>
+        <v>0.2087210302788094</v>
       </c>
       <c r="F7">
-        <v>5.22120821253796</v>
+        <v>5.216788725427676</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007919503256536451</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.180715903125076</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.187043957049511</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2113507822762024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.2071983380165818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.018024268291867</v>
+        <v>2.981307296496254</v>
       </c>
       <c r="C8">
-        <v>0.7952765873729675</v>
+        <v>0.7772209279519871</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2553434816955118</v>
+        <v>0.26010694339179</v>
       </c>
       <c r="F8">
-        <v>6.42136627714811</v>
+        <v>6.411377025486274</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007746998646589454</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.664131149502694</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.66792614338398</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2755758571773725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.2703803684693113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.268374528093716</v>
+        <v>4.21115243891785</v>
       </c>
       <c r="C9">
-        <v>1.13501313538552</v>
+        <v>1.109947390410696</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.367716385056589</v>
+        <v>0.3728124727165891</v>
       </c>
       <c r="F9">
-        <v>8.994635614543853</v>
+        <v>8.971020815591942</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007411435490482428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.709665195330686</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.706996799603019</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4251204389149059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.4175833193216292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.289727198919991</v>
+        <v>5.215561125249565</v>
       </c>
       <c r="C10">
-        <v>1.415505535844545</v>
+        <v>1.384653670460807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4633074438815754</v>
+        <v>0.4684785648832772</v>
       </c>
       <c r="F10">
-        <v>11.11677676628659</v>
+        <v>11.07976795120896</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007159608457040155</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.582318307431706</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.573094984443259</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5601617186924486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.5504803269961194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.789741201822267</v>
+        <v>5.707065685160273</v>
       </c>
       <c r="C11">
-        <v>1.553954486359771</v>
+        <v>1.520196845779026</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5115053306228461</v>
+        <v>0.516643648535883</v>
       </c>
       <c r="F11">
-        <v>12.16422569299505</v>
+        <v>12.11971046748005</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007041690669031803</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.016771690048785</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.003826128725024</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6307022154925228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.6198572488551441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.985720304072061</v>
+        <v>5.899654905926297</v>
       </c>
       <c r="C12">
-        <v>1.608437361741267</v>
+        <v>1.573521964992665</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5306667367287616</v>
+        <v>0.5357784346448753</v>
       </c>
       <c r="F12">
-        <v>12.57651142370298</v>
+        <v>12.52885433593974</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006996293556277905</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.188477140484622</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.173966460933968</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6591777958476221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.6478514643090705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.943187310914936</v>
+        <v>5.857860532692882</v>
       </c>
       <c r="C13">
-        <v>1.59660232595229</v>
+        <v>1.561939204948374</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5264948506112717</v>
+        <v>0.5316130158494872</v>
       </c>
       <c r="F13">
-        <v>12.48694651340139</v>
+        <v>12.43998148141691</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007006108863086604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.151141787332421</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.136976168070419</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6529574976958195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.641736946849548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.805720834165015</v>
+        <v>5.722770173256436</v>
       </c>
       <c r="C14">
-        <v>1.558392183186584</v>
+        <v>1.524540577040852</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5130618685033568</v>
+        <v>0.5181983168315512</v>
       </c>
       <c r="F14">
-        <v>12.19780432132154</v>
+        <v>12.15303734335379</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007037972544046527</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.030741294737993</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.017670461461393</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6330063510266584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.6221227032142416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.722437314122317</v>
+        <v>5.640918320483991</v>
       </c>
       <c r="C15">
-        <v>1.535272610690072</v>
+        <v>1.501909929725741</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5049606535917945</v>
+        <v>0.5101062708680928</v>
       </c>
       <c r="F15">
-        <v>12.02287023804212</v>
+        <v>11.97940695260667</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007057383814879492</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.957992979204334</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.945570585983887</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.621031756441063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.6103486376505209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.257883341370302</v>
+        <v>5.184253282140901</v>
       </c>
       <c r="C16">
-        <v>1.406714580242237</v>
+        <v>1.376045738173673</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4602704221088274</v>
+        <v>0.4654420045482155</v>
       </c>
       <c r="F16">
-        <v>11.0502739040075</v>
+        <v>11.01372003452957</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007167226612038908</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.554819699407972</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.545821064536568</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5557701057854736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.546159950128871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.982912916519695</v>
+        <v>4.913886515212425</v>
       </c>
       <c r="C17">
-        <v>1.33093155947472</v>
+        <v>1.301834639774881</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.434202198556477</v>
+        <v>0.4393700310186901</v>
       </c>
       <c r="F17">
-        <v>10.47698399520644</v>
+        <v>10.44425198161815</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007233590118354235</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.318180802646793</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.311064831800877</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5183413064112656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.509333400100509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.827973265920377</v>
+        <v>4.761523424207553</v>
       </c>
       <c r="C18">
-        <v>1.288327379575549</v>
+        <v>1.260110249517652</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4196343719361195</v>
+        <v>0.4247941222481444</v>
       </c>
       <c r="F18">
-        <v>10.1546784545059</v>
+        <v>10.12401934663114</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007271463886837637</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.185463897239288</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.179365035025768</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4976360106196331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.4889578951528506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.7760262948442</v>
+        <v>4.710437830097419</v>
       </c>
       <c r="C19">
-        <v>1.274058815967464</v>
+        <v>1.246135818945277</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4147693155617276</v>
+        <v>0.4199254135273947</v>
       </c>
       <c r="F19">
-        <v>10.04673161587934</v>
+        <v>10.0167550549798</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007284242979330489</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.141065537097091</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.135300895469868</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4907555887160129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.4821865979158346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.01184149399279</v>
+        <v>4.942332718061436</v>
       </c>
       <c r="C20">
-        <v>1.338893855279707</v>
+        <v>1.309632227264274</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.436931701985003</v>
+        <v>0.4421005722826337</v>
       </c>
       <c r="F20">
-        <v>10.53721840765681</v>
+        <v>10.5040930728311</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007226557951922266</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.343009328412279</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.335700031862672</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5222377451018474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.5131675253991901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.845903089934893</v>
+        <v>5.762259589498626</v>
       </c>
       <c r="C21">
-        <v>1.569554844887193</v>
+        <v>1.535466620592786</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5169804743702358</v>
+        <v>0.5221119878300797</v>
       </c>
       <c r="F21">
-        <v>12.28227045958488</v>
+        <v>12.23686700176211</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007028636126742241</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.065893152671435</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.052505496127935</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.638814137317862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.6278327840757782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.43082858734283</v>
+        <v>6.336925939700564</v>
       </c>
       <c r="C22">
-        <v>1.73265647439996</v>
+        <v>1.695063718116046</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5747819475736691</v>
+        <v>0.5798017899723931</v>
       </c>
       <c r="F22">
-        <v>13.51684623433977</v>
+        <v>13.46158531247488</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006894750858040668</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.581613983238839</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.563301982969193</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7256385064470763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.7131579953424421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.114339337666138</v>
+        <v>6.026029987120353</v>
       </c>
       <c r="C23">
-        <v>1.644262905624942</v>
+        <v>1.608581037550778</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5433280504361591</v>
+        <v>0.5484178038822733</v>
       </c>
       <c r="F23">
-        <v>12.84765536038526</v>
+        <v>12.79787002732678</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006966734318585584</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.301620193119305</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.286047338539845</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6781250375321193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.6664742262190124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.998753198631107</v>
+        <v>4.929462719175035</v>
       </c>
       <c r="C24">
-        <v>1.335291131996087</v>
+        <v>1.306104041910999</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4356964041583922</v>
+        <v>0.4408648234073382</v>
       </c>
       <c r="F24">
-        <v>10.50996400328017</v>
+        <v>10.47701686977737</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007229738045965891</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.331774105805806</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.324552411767286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5204736644092627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.5114316669098962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.915647840242912</v>
+        <v>3.864203493828654</v>
       </c>
       <c r="C25">
-        <v>1.03880174979912</v>
+        <v>1.015709892583232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3355277693795244</v>
+        <v>0.3405566964253808</v>
       </c>
       <c r="F25">
-        <v>8.266375120882429</v>
+        <v>8.246876620453349</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007502541345623115</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.412424280995211</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.411737299814902</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3812041935362309</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.3743519003000024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.143022212482833</v>
+        <v>3.399687662979773</v>
       </c>
       <c r="C2">
-        <v>0.8207733600932841</v>
+        <v>0.4449215700605862</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2746776353677234</v>
+        <v>0.03200290007570494</v>
       </c>
       <c r="F2">
-        <v>6.746950909288046</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007700647340330468</v>
+        <v>0.0008069239610863704</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.803444677153678</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3230135568016976</v>
       </c>
       <c r="M2">
-        <v>0.2887776623263321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.662990185536586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.680644930766107</v>
+        <v>2.946328306069006</v>
       </c>
       <c r="C3">
-        <v>0.6963840601497111</v>
+        <v>0.3859872608399542</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2331977659986393</v>
+        <v>0.03101302113096871</v>
       </c>
       <c r="F3">
-        <v>5.787971401219181</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007835444259705485</v>
+        <v>0.0008169777665506785</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.416685897742582</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2831243068270624</v>
       </c>
       <c r="M3">
-        <v>0.2369508582318005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.406908033052005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.406487789254186</v>
+        <v>2.673805792193946</v>
       </c>
       <c r="C4">
-        <v>0.6228111464053825</v>
+        <v>0.3503182301297727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2088526010684362</v>
+        <v>0.03044874353308735</v>
       </c>
       <c r="F4">
-        <v>5.219869507967417</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007919041274892708</v>
+        <v>0.0008232857933213972</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.188281249189544</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2592461318564716</v>
       </c>
       <c r="M4">
-        <v>0.2073565082474431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.255958559182233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.296810662681196</v>
+        <v>2.564020955639876</v>
       </c>
       <c r="C5">
-        <v>0.5934099533384085</v>
+        <v>0.3358871184108807</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1991607069037045</v>
+        <v>0.03022889827608566</v>
       </c>
       <c r="F5">
-        <v>4.992628174838245</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007953387081766124</v>
+        <v>0.0008258928936460974</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.097053939106075</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2496510201322479</v>
       </c>
       <c r="M5">
-        <v>0.1957581838105007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.195840976248533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.278711568449012</v>
+        <v>2.545862556883492</v>
       </c>
       <c r="C6">
-        <v>0.5885596805842397</v>
+        <v>0.3334964444679827</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1975637996299682</v>
+        <v>0.03019298023350458</v>
       </c>
       <c r="F6">
-        <v>4.955127651050134</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0007959108912983224</v>
+        <v>0.0008263280781389319</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.082006104927686</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2480654199440266</v>
       </c>
       <c r="M6">
-        <v>0.1938576088598438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2.185937704580439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.405000861918722</v>
+        <v>2.672320300260367</v>
       </c>
       <c r="C7">
-        <v>0.6224124323383649</v>
+        <v>0.3501232167100454</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2087210302788094</v>
+        <v>0.03044573877110857</v>
       </c>
       <c r="F7">
-        <v>5.216788725427676</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007919503256536451</v>
+        <v>0.0008233208024270735</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.187043957049511</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2591162041512689</v>
       </c>
       <c r="M7">
-        <v>0.2071983380165818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.255142373792623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.981307296496254</v>
+        <v>3.242030632811804</v>
       </c>
       <c r="C8">
-        <v>0.7772209279519871</v>
+        <v>0.4244773875640533</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.26010694339179</v>
+        <v>0.03165202828619762</v>
       </c>
       <c r="F8">
-        <v>6.411377025486274</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007746998646589454</v>
+        <v>0.0008103641459139488</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.66792614338398</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3091202914256854</v>
       </c>
       <c r="M8">
-        <v>0.2703803684693113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.573271176608671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.21115243891785</v>
+        <v>4.415788396275332</v>
       </c>
       <c r="C9">
-        <v>1.109947390410696</v>
+        <v>0.5757154752571978</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3728124727165891</v>
+        <v>0.03440540404433179</v>
       </c>
       <c r="F9">
-        <v>8.971020815591942</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007411435490482428</v>
+        <v>0.0007858949395208435</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.706996799603019</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4130189690476556</v>
       </c>
       <c r="M9">
-        <v>0.4175833193216292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.256426291043297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.215561125249565</v>
+        <v>5.329112060671719</v>
       </c>
       <c r="C10">
-        <v>1.384653670460807</v>
+        <v>0.6923075808623196</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4684785648832772</v>
+        <v>0.03673280538056467</v>
       </c>
       <c r="F10">
-        <v>11.07976795120896</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007159608457040155</v>
+        <v>0.0007682782707809643</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.573094984443259</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4944724060259915</v>
       </c>
       <c r="M10">
-        <v>0.5504803269961194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.80962237127838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.707065685160273</v>
+        <v>5.760125115125049</v>
       </c>
       <c r="C11">
-        <v>1.520196845779026</v>
+        <v>0.7471309400045527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.516643648535883</v>
+        <v>0.03787589434333682</v>
       </c>
       <c r="F11">
-        <v>12.11971046748005</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007041690669031803</v>
+        <v>0.0007602857771007443</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.003826128725024</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5330577901023474</v>
       </c>
       <c r="M11">
-        <v>0.6198572488551441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.076486437057895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.899654905926297</v>
+        <v>5.926020218635472</v>
       </c>
       <c r="C12">
-        <v>1.573521964992665</v>
+        <v>0.7682081168040042</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5357784346448753</v>
+        <v>0.03832269529050158</v>
       </c>
       <c r="F12">
-        <v>12.52885433593974</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006996293556277905</v>
+        <v>0.0007572566601107573</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.173966460933968</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.547931224166291</v>
       </c>
       <c r="M12">
-        <v>0.6478514643090705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.180136632230671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.857860532692882</v>
+        <v>5.890164629591311</v>
       </c>
       <c r="C13">
-        <v>1.561939204948374</v>
+        <v>0.7636536066804922</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5316130158494872</v>
+        <v>0.03822581675834691</v>
       </c>
       <c r="F13">
-        <v>12.43998148141691</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007006108863086604</v>
+        <v>0.0007579092469871328</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.136976168070419</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5447155718559742</v>
       </c>
       <c r="M13">
-        <v>0.641736946849548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.157691081894455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.722770173256436</v>
+        <v>5.773716871193983</v>
       </c>
       <c r="C14">
-        <v>1.524540577040852</v>
+        <v>0.7488582404529041</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5181983168315512</v>
+        <v>0.03791236215090876</v>
       </c>
       <c r="F14">
-        <v>12.15303734335379</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007037972544046527</v>
+        <v>0.0007600366561368904</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.017670461461393</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5342759218099076</v>
       </c>
       <c r="M14">
-        <v>0.6221227032142416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.084959222382849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.640918320483991</v>
+        <v>5.702752774136172</v>
       </c>
       <c r="C15">
-        <v>1.501909929725741</v>
+        <v>0.7398388716417799</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5101062708680928</v>
+        <v>0.03772223608723735</v>
       </c>
       <c r="F15">
-        <v>11.97940695260667</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007057383814879492</v>
+        <v>0.0007613392432194698</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.945570585983887</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5279168104694207</v>
       </c>
       <c r="M15">
-        <v>0.6103486376505209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.040760006167147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.184253282140901</v>
+        <v>5.301293397114023</v>
       </c>
       <c r="C16">
-        <v>1.376045738173673</v>
+        <v>0.6887655600654057</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4654420045482155</v>
+        <v>0.03665994711322185</v>
       </c>
       <c r="F16">
-        <v>11.01372003452957</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007167226612038908</v>
+        <v>0.0007688005710217993</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.545821064536568</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4919849956505544</v>
       </c>
       <c r="M16">
-        <v>0.546159950128871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.792521559425467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.913886515212425</v>
+        <v>5.059284794634436</v>
       </c>
       <c r="C17">
-        <v>1.301834639774881</v>
+        <v>0.6579304264110704</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4393700310186901</v>
+        <v>0.03603106776029108</v>
       </c>
       <c r="F17">
-        <v>10.44425198161815</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007233590118354235</v>
+        <v>0.0007733796270952653</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.311064831800877</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4703619137161041</v>
       </c>
       <c r="M17">
-        <v>0.509333400100509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.644400572831586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.761523424207553</v>
+        <v>4.921519652211259</v>
       </c>
       <c r="C18">
-        <v>1.260110249517652</v>
+        <v>0.6403587265176611</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4247941222481444</v>
+        <v>0.03567716776982444</v>
       </c>
       <c r="F18">
-        <v>10.12401934663114</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007271463886837637</v>
+        <v>0.0007760157801310404</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.179365035025768</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4580662066477288</v>
       </c>
       <c r="M18">
-        <v>0.4889578951528506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.56060919511728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710437830097419</v>
+        <v>4.875108268072665</v>
       </c>
       <c r="C19">
-        <v>1.246135818945277</v>
+        <v>0.6344357311773194</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4199254135273947</v>
+        <v>0.03555863501012979</v>
       </c>
       <c r="F19">
-        <v>10.0167550549798</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007284242979330489</v>
+        <v>0.0007769089049642664</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.135300895469868</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4539262006967704</v>
       </c>
       <c r="M19">
-        <v>0.4821865979158346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.532468665291788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.942332718061436</v>
+        <v>5.084895846060874</v>
       </c>
       <c r="C20">
-        <v>1.309632227264274</v>
+        <v>0.6611955192625487</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4421005722826337</v>
+        <v>0.03609719205560324</v>
       </c>
       <c r="F20">
-        <v>10.5040930728311</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007226557951922266</v>
+        <v>0.0007728919681080659</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.335700031862672</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4726488213184581</v>
       </c>
       <c r="M20">
-        <v>0.5131675253991901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.660020271811561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.762259589498626</v>
+        <v>5.807843737702342</v>
       </c>
       <c r="C21">
-        <v>1.535466620592786</v>
+        <v>0.7531948680530149</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5221119878300797</v>
+        <v>0.03800403717791667</v>
       </c>
       <c r="F21">
-        <v>12.23686700176211</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007028636126742241</v>
+        <v>0.0007594119026095625</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.052505496127935</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5373348223653807</v>
       </c>
       <c r="M21">
-        <v>0.6278327840757782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.106248326814523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.336925939700564</v>
+        <v>6.296217620284267</v>
       </c>
       <c r="C22">
-        <v>1.695063718116046</v>
+        <v>0.8152043720066899</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5798017899723931</v>
+        <v>0.03933258151576524</v>
       </c>
       <c r="F22">
-        <v>13.46158531247488</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0006894750858040668</v>
+        <v>0.0007505838040576817</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.563301982969193</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5811626649693551</v>
       </c>
       <c r="M22">
-        <v>0.7131579953424421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.413249433763326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.026029987120353</v>
+        <v>6.033941585192167</v>
       </c>
       <c r="C23">
-        <v>1.608581037550778</v>
+        <v>0.7819136333267238</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5484178038822733</v>
+        <v>0.03861530119639589</v>
       </c>
       <c r="F23">
-        <v>12.79787002732678</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0006966734318585584</v>
+        <v>0.0007552992955446282</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.286047338539845</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5576132304277479</v>
       </c>
       <c r="M23">
-        <v>0.6664742262190124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.247837795188872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.929462719175035</v>
+        <v>5.073312858728627</v>
       </c>
       <c r="C24">
-        <v>1.306104041910999</v>
+        <v>0.6597188897937087</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4408648234073382</v>
+        <v>0.03606727356237549</v>
       </c>
       <c r="F24">
-        <v>10.47701686977737</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007229738045965891</v>
+        <v>0.0007731124270828085</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.324552411767286</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4716144907976343</v>
       </c>
       <c r="M24">
-        <v>0.5114316669098962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.652954382957262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.864203493828654</v>
+        <v>4.090640147184445</v>
       </c>
       <c r="C25">
-        <v>1.015709892583232</v>
+        <v>0.5340161841419899</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3405566964253808</v>
+        <v>0.03361254708098294</v>
       </c>
       <c r="F25">
-        <v>8.246876620453349</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007502541345623115</v>
+        <v>0.0007924341111599245</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.411737299814902</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3841384401083872</v>
       </c>
       <c r="M25">
-        <v>0.3743519003000024</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.063830129009276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.399687662979773</v>
+        <v>0.8953644168077233</v>
       </c>
       <c r="C2">
-        <v>0.4449215700605862</v>
+        <v>0.08541291064987888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03200290007570494</v>
+        <v>0.06396898550506869</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.481906609630329</v>
       </c>
       <c r="G2">
-        <v>0.0008069239610863704</v>
+        <v>0.9571159729806311</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6926156454282903</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7802947561176978</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08726899413958478</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7929896514470727</v>
       </c>
       <c r="L2">
-        <v>0.3230135568016976</v>
+        <v>0.2333975113244691</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.229194697598043</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.662990185536586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.946328306069006</v>
+        <v>0.7788137775598045</v>
       </c>
       <c r="C3">
-        <v>0.3859872608399542</v>
+        <v>0.07883082104557104</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03101302113096871</v>
+        <v>0.06112151304092706</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.425083162790003</v>
       </c>
       <c r="G3">
-        <v>0.0008169777665506785</v>
+        <v>0.9383537575936884</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6918101679889048</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7794355540137516</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08680724228768</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6877203122825364</v>
       </c>
       <c r="L3">
-        <v>0.2831243068270624</v>
+        <v>0.2118494476031145</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2014819888736383</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.406908033052005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.673805792193946</v>
+        <v>0.7076688480093196</v>
       </c>
       <c r="C4">
-        <v>0.3503182301297727</v>
+        <v>0.07479369029196192</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03044874353308735</v>
+        <v>0.05942316369453415</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.392287322689853</v>
       </c>
       <c r="G4">
-        <v>0.0008232857933213972</v>
+        <v>0.9284774696541547</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6922646366005978</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7800573160385298</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08652499180301199</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6233852695241353</v>
       </c>
       <c r="L4">
-        <v>0.2592461318564716</v>
+        <v>0.1988121664827673</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.184609555471841</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.255958559182233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564020955639876</v>
+        <v>0.6787670034878204</v>
       </c>
       <c r="C5">
-        <v>0.3358871184108807</v>
+        <v>0.07314827514731803</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03022889827608566</v>
+        <v>0.05874323083643063</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.379425261578106</v>
       </c>
       <c r="G5">
-        <v>0.0008258928936460974</v>
+        <v>0.924847056481056</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6926799852747507</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7805889982689891</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08641035483921122</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5972297360751924</v>
       </c>
       <c r="L5">
-        <v>0.2496510201322479</v>
+        <v>0.1935448700337616</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1777662944998433</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.195840976248533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.545862556883492</v>
+        <v>0.6739729135490791</v>
       </c>
       <c r="C6">
-        <v>0.3334964444679827</v>
+        <v>0.07287500268681413</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03019298023350458</v>
+        <v>0.05863105105952648</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.377319197071131</v>
       </c>
       <c r="G6">
-        <v>0.0008263280781389319</v>
+        <v>0.924267502244831</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6927626143766616</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7806937908037028</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08639134441013852</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.592889948620325</v>
       </c>
       <c r="L6">
-        <v>0.2480654199440266</v>
+        <v>0.1926728999159906</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1766318302747152</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.185937704580439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.672320300260367</v>
+        <v>0.7072787208774969</v>
       </c>
       <c r="C7">
-        <v>0.3501232167100454</v>
+        <v>0.07477150236600494</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03044573877110857</v>
+        <v>0.05941394518883492</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.392111856657934</v>
       </c>
       <c r="G7">
-        <v>0.0008233208024270735</v>
+        <v>0.9284269367958302</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6922693171610632</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7800633733494564</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08652344413657609</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6230322958123651</v>
       </c>
       <c r="L7">
-        <v>0.2591162041512689</v>
+        <v>0.1987409496356207</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1845171383617661</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.255142373792623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.242030632811804</v>
+        <v>0.8550819103960237</v>
       </c>
       <c r="C8">
-        <v>0.4244773875640533</v>
+        <v>0.08314168314944936</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03165202828619762</v>
+        <v>0.0629765383891705</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.46186440130694</v>
       </c>
       <c r="G8">
-        <v>0.0008103641459139488</v>
+        <v>0.9502937752069016</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6921356858315733</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7797533457560277</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08710955756153638</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.756621578975853</v>
       </c>
       <c r="L8">
-        <v>0.3091202914256854</v>
+        <v>0.2259256855991225</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.219607356019079</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.573271176608671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.415788396275332</v>
+        <v>1.148959486953601</v>
       </c>
       <c r="C9">
-        <v>0.5757154752571978</v>
+        <v>0.09965502029722018</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03440540404433179</v>
+        <v>0.07037993426689226</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.616420150357129</v>
       </c>
       <c r="G9">
-        <v>0.0007858949395208435</v>
+        <v>1.007134634260893</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6998118976000001</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7887775383244673</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08826614751066941</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.02166761190847</v>
       </c>
       <c r="L9">
-        <v>0.4130189690476556</v>
+        <v>0.280920237495863</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2897339791926896</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.256426291043297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.329112060671719</v>
+        <v>1.368426098160683</v>
       </c>
       <c r="C10">
-        <v>0.6923075808623196</v>
+        <v>0.1119472698408472</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03673280538056467</v>
+        <v>0.07610416415942112</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>1.742528103013115</v>
       </c>
       <c r="G10">
-        <v>0.0007682782707809643</v>
+        <v>1.058772057175617</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7108987272789591</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8020417015442973</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08911640509258589</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.219320807571535</v>
       </c>
       <c r="L10">
-        <v>0.4944724060259915</v>
+        <v>0.3225801087235993</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3423264907198984</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.80962237127838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.760125115125049</v>
+        <v>1.469303451204297</v>
       </c>
       <c r="C11">
-        <v>0.7471309400045527</v>
+        <v>0.1175984188586412</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03787589434333682</v>
+        <v>0.07877746513271688</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.803036861139674</v>
       </c>
       <c r="G11">
-        <v>0.0007602857771007443</v>
+        <v>1.084736627907745</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7172716666855763</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.809699624793609</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08950244044489963</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.310126824003106</v>
       </c>
       <c r="L11">
-        <v>0.5330577901023474</v>
+        <v>0.3418594847108523</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3665494203259527</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.076486437057895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.926020218635472</v>
+        <v>1.507676279907685</v>
       </c>
       <c r="C12">
-        <v>0.7682081168040042</v>
+        <v>0.1197491184818915</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03832269529050158</v>
+        <v>0.07980038700696213</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.826438729327336</v>
       </c>
       <c r="G12">
-        <v>0.0007572566601107573</v>
+        <v>1.094954313896054</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.719889399607581</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8128495978517023</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08964843453710714</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.344663689425403</v>
       </c>
       <c r="L12">
-        <v>0.547931224166291</v>
+        <v>0.3492120928408298</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3757706630829105</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.180136632230671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.890164629591311</v>
+        <v>1.499403933422343</v>
       </c>
       <c r="C13">
-        <v>0.7636536066804922</v>
+        <v>0.1192854123220783</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03822581675834691</v>
+        <v>0.07957960044109313</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>1.821376376103942</v>
       </c>
       <c r="G13">
-        <v>0.0007579092469871328</v>
+        <v>1.092736111224923</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7193163088856522</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8121597946041419</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08961700184704924</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.337218485856681</v>
       </c>
       <c r="L13">
-        <v>0.5447155718559742</v>
+        <v>0.3476261882523062</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3737824497789717</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.157691081894455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.773716871193983</v>
+        <v>1.472456805613689</v>
       </c>
       <c r="C14">
-        <v>0.7488582404529041</v>
+        <v>0.1177751298018777</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03791236215090876</v>
+        <v>0.07886140528816554</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.80495213582067</v>
       </c>
       <c r="G14">
-        <v>0.0007600366561368904</v>
+        <v>1.085569339515231</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7174828521191756</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8099536634309388</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08951445573713102</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.312965040585254</v>
       </c>
       <c r="L14">
-        <v>0.5342759218099076</v>
+        <v>0.3424633190536213</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3673070506910037</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.084959222382849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.702752774136172</v>
+        <v>1.455974127496489</v>
       </c>
       <c r="C15">
-        <v>0.7398388716417799</v>
+        <v>0.1168515045127307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03772223608723735</v>
+        <v>0.0784228901122539</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.794956572065416</v>
       </c>
       <c r="G15">
-        <v>0.0007613392432194698</v>
+        <v>1.081230604153376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7163868426694222</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.808635426288312</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08945161617459618</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.298129408554246</v>
       </c>
       <c r="L15">
-        <v>0.5279168104694207</v>
+        <v>0.3393078219591104</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3633471788388931</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.040760006167147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.301293397114023</v>
+        <v>1.3618564031365</v>
       </c>
       <c r="C16">
-        <v>0.6887655600654057</v>
+        <v>0.1115793314881799</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03665994711322185</v>
+        <v>0.07593090560895277</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.738640009704909</v>
       </c>
       <c r="G16">
-        <v>0.0007688005710217993</v>
+        <v>1.057127484697716</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.710510103010094</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8015753030856274</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08909115482391172</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.213406242676513</v>
       </c>
       <c r="L16">
-        <v>0.4919849956505544</v>
+        <v>0.3213271560797182</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3407499411682693</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.792521559425467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.059284794634436</v>
+        <v>1.304400680623615</v>
       </c>
       <c r="C17">
-        <v>0.6579304264110704</v>
+        <v>0.1083617253063096</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03603106776029108</v>
+        <v>0.07442034445881873</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.704921555937787</v>
       </c>
       <c r="G17">
-        <v>0.0007733796270952653</v>
+        <v>1.042995133530255</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7072545345476868</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7976714681709112</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08886977469325785</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.161675205142529</v>
       </c>
       <c r="L17">
-        <v>0.4703619137161041</v>
+        <v>0.3103839008140739</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3269675585708498</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.644400572831586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.921519652211259</v>
+        <v>1.271450154828131</v>
       </c>
       <c r="C18">
-        <v>0.6403587265176611</v>
+        <v>0.10651648590202</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03567716776982444</v>
+        <v>0.07355799389107176</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>1.685820938200749</v>
       </c>
       <c r="G18">
-        <v>0.0007760157801310404</v>
+        <v>1.035097577638481</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7055063010783726</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.795577878349313</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08874237708780441</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.132003459945849</v>
       </c>
       <c r="L18">
-        <v>0.4580662066477288</v>
+        <v>0.3041202069107385</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3190680139903748</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.56060919511728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.875108268072665</v>
+        <v>1.260309570687127</v>
       </c>
       <c r="C19">
-        <v>0.6344357311773194</v>
+        <v>0.1058925905539354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03555863501012979</v>
+        <v>0.07326711193398339</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.679403104313067</v>
       </c>
       <c r="G19">
-        <v>0.0007769089049642664</v>
+        <v>1.032462409556487</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7049353379795633</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7948946116690081</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08869923358232512</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.121970651167544</v>
       </c>
       <c r="L19">
-        <v>0.4539262006967704</v>
+        <v>0.3020045404298344</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3163979594497093</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.532468665291788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.084895846060874</v>
+        <v>1.310506793004038</v>
       </c>
       <c r="C20">
-        <v>0.6611955192625487</v>
+        <v>0.1087036664023984</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03609719205560324</v>
+        <v>0.07458047073684781</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.708480325364164</v>
       </c>
       <c r="G20">
-        <v>0.0007728919681080659</v>
+        <v>1.04447543162847</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7075881397939412</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7980712122495817</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08889334835032514</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.167173360322607</v>
       </c>
       <c r="L20">
-        <v>0.4726488213184581</v>
+        <v>0.3115456311294338</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3284318085784221</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.660020271811561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.807843737702342</v>
+        <v>1.480366948277037</v>
       </c>
       <c r="C21">
-        <v>0.7531948680530149</v>
+        <v>0.118218426584356</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03800403717791667</v>
+        <v>0.0790720636417781</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.809762768297546</v>
       </c>
       <c r="G21">
-        <v>0.0007594119026095625</v>
+        <v>1.087663684613545</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7180157234034397</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8105947319915074</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08954458181619884</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.320084591844761</v>
       </c>
       <c r="L21">
-        <v>0.5373348223653807</v>
+        <v>0.3439783300028267</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.369207667682879</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.106248326814523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.296217620284267</v>
+        <v>1.592399458912411</v>
       </c>
       <c r="C22">
-        <v>0.8152043720066899</v>
+        <v>0.1245005985562813</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03933258151576524</v>
+        <v>0.0820696959716436</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>1.878823260872821</v>
       </c>
       <c r="G22">
-        <v>0.0007505838040576817</v>
+        <v>1.1181520016452</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7260293209461679</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8202459016953085</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08996905727448734</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.420910384703433</v>
       </c>
       <c r="L22">
-        <v>0.5811626649693551</v>
+        <v>0.365480107216186</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3961429509027354</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.413249433763326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.033941585192167</v>
+        <v>1.532504233990522</v>
       </c>
       <c r="C23">
-        <v>0.7819136333267238</v>
+        <v>0.121141073446779</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03861530119639589</v>
+        <v>0.08046389837084789</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.841689196290005</v>
       </c>
       <c r="G23">
-        <v>0.0007552992955446282</v>
+        <v>1.101662388633528</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7216379786261058</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8149549044007358</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0897426393209706</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.367008541675631</v>
       </c>
       <c r="L23">
-        <v>0.5576132304277479</v>
+        <v>0.3539746214335793</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3817389407951808</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.247837795188872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.073312858728627</v>
+        <v>1.307745967358386</v>
       </c>
       <c r="C24">
-        <v>0.6597188897937087</v>
+        <v>0.1085490606522796</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03606727356237549</v>
+        <v>0.07450805872123922</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>1.706870522078418</v>
       </c>
       <c r="G24">
-        <v>0.0007731124270828085</v>
+        <v>1.043805483016953</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7074369333757744</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7978900195515664</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08888269107774605</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.16468743074023</v>
       </c>
       <c r="L24">
-        <v>0.4716144907976343</v>
+        <v>0.3110203268379195</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3277697464095368</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.652954382957262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.090640147184445</v>
+        <v>1.068917529194295</v>
       </c>
       <c r="C25">
-        <v>0.5340161841419899</v>
+        <v>0.09516732755175639</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03361254708098294</v>
+        <v>0.0683294162385657</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.572535468158321</v>
       </c>
       <c r="G25">
-        <v>0.0007924341111599245</v>
+        <v>0.9901280036951619</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6968253388795489</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7852296373184871</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08795288007038238</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9495326299611975</v>
       </c>
       <c r="L25">
-        <v>0.3841384401083872</v>
+        <v>0.2658397138848159</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2705954851940433</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.063830129009276</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8953644168077233</v>
+        <v>0.5927688107317977</v>
       </c>
       <c r="C2">
-        <v>0.08541291064987888</v>
+        <v>0.08198816812695497</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06396898550506869</v>
+        <v>0.1623990570935394</v>
       </c>
       <c r="F2">
-        <v>1.481906609630329</v>
+        <v>2.651338463334199</v>
       </c>
       <c r="G2">
-        <v>0.9571159729806311</v>
+        <v>1.590116522096409</v>
       </c>
       <c r="H2">
-        <v>0.6926156454282903</v>
+        <v>1.441423647620056</v>
       </c>
       <c r="I2">
-        <v>0.7802947561176978</v>
+        <v>1.513088120598908</v>
       </c>
       <c r="J2">
-        <v>0.08726899413958478</v>
+        <v>0.1108423745061238</v>
       </c>
       <c r="K2">
-        <v>0.7929896514470727</v>
+        <v>0.3440564424601291</v>
       </c>
       <c r="L2">
-        <v>0.2333975113244691</v>
+        <v>0.3815664171981723</v>
       </c>
       <c r="M2">
-        <v>0.229194697598043</v>
+        <v>0.2263012922041483</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7788137775598045</v>
+        <v>0.5625585361359242</v>
       </c>
       <c r="C3">
-        <v>0.07883082104557104</v>
+        <v>0.07966545906609213</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06112151304092706</v>
+        <v>0.1623416491463523</v>
       </c>
       <c r="F3">
-        <v>1.425083162790003</v>
+        <v>2.650935579588278</v>
       </c>
       <c r="G3">
-        <v>0.9383537575936884</v>
+        <v>1.593830716240106</v>
       </c>
       <c r="H3">
-        <v>0.6918101679889048</v>
+        <v>1.448008630242668</v>
       </c>
       <c r="I3">
-        <v>0.7794355540137516</v>
+        <v>1.52021051249455</v>
       </c>
       <c r="J3">
-        <v>0.08680724228768</v>
+        <v>0.1103978555219349</v>
       </c>
       <c r="K3">
-        <v>0.6877203122825364</v>
+        <v>0.3148555271466478</v>
       </c>
       <c r="L3">
-        <v>0.2118494476031145</v>
+        <v>0.3777868916016587</v>
       </c>
       <c r="M3">
-        <v>0.2014819888736383</v>
+        <v>0.2198238735868969</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7076688480093196</v>
+        <v>0.5442621926219999</v>
       </c>
       <c r="C4">
-        <v>0.07479369029196192</v>
+        <v>0.07821460717375572</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05942316369453415</v>
+        <v>0.1623506468434712</v>
       </c>
       <c r="F4">
-        <v>1.392287322689853</v>
+        <v>2.651825687326593</v>
       </c>
       <c r="G4">
-        <v>0.9284774696541547</v>
+        <v>1.596867967201533</v>
       </c>
       <c r="H4">
-        <v>0.6922646366005978</v>
+        <v>1.452571055002608</v>
       </c>
       <c r="I4">
-        <v>0.7800573160385298</v>
+        <v>1.525174154289118</v>
       </c>
       <c r="J4">
-        <v>0.08652499180301199</v>
+        <v>0.110122141760078</v>
       </c>
       <c r="K4">
-        <v>0.6233852695241353</v>
+        <v>0.2970412192054965</v>
       </c>
       <c r="L4">
-        <v>0.1988121664827673</v>
+        <v>0.3756132723900691</v>
       </c>
       <c r="M4">
-        <v>0.184609555471841</v>
+        <v>0.2159456075824586</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6787670034878204</v>
+        <v>0.5368703563343047</v>
       </c>
       <c r="C5">
-        <v>0.07314827514731803</v>
+        <v>0.07761713939631676</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05874323083643063</v>
+        <v>0.1623654786881996</v>
       </c>
       <c r="F5">
-        <v>1.379425261578106</v>
+        <v>2.652474726800619</v>
       </c>
       <c r="G5">
-        <v>0.924847056481056</v>
+        <v>1.598295920654948</v>
       </c>
       <c r="H5">
-        <v>0.6926799852747507</v>
+        <v>1.45456093461442</v>
       </c>
       <c r="I5">
-        <v>0.7805889982689891</v>
+        <v>1.527345413321882</v>
       </c>
       <c r="J5">
-        <v>0.08641035483921122</v>
+        <v>0.110009099068014</v>
       </c>
       <c r="K5">
-        <v>0.5972297360751924</v>
+        <v>0.2898110106710448</v>
       </c>
       <c r="L5">
-        <v>0.1935448700337616</v>
+        <v>0.3747646154625315</v>
       </c>
       <c r="M5">
-        <v>0.1777662944998433</v>
+        <v>0.2143901844867777</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6739729135490791</v>
+        <v>0.5356468315958125</v>
       </c>
       <c r="C6">
-        <v>0.07287500268681413</v>
+        <v>0.07751755314645692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05863105105952648</v>
+        <v>0.162368617006873</v>
       </c>
       <c r="F6">
-        <v>1.377319197071131</v>
+        <v>2.652599800326215</v>
       </c>
       <c r="G6">
-        <v>0.924267502244831</v>
+        <v>1.598544520818763</v>
       </c>
       <c r="H6">
-        <v>0.6927626143766616</v>
+        <v>1.454899246554405</v>
       </c>
       <c r="I6">
-        <v>0.7806937908037028</v>
+        <v>1.527714922066352</v>
       </c>
       <c r="J6">
-        <v>0.08639134441013852</v>
+        <v>0.1099902872498202</v>
       </c>
       <c r="K6">
-        <v>0.592889948620325</v>
+        <v>0.2886122167379028</v>
       </c>
       <c r="L6">
-        <v>0.1926728999159906</v>
+        <v>0.3746259421378042</v>
       </c>
       <c r="M6">
-        <v>0.1766318302747152</v>
+        <v>0.2141334216631137</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7072787208774969</v>
+        <v>0.5441622436649993</v>
       </c>
       <c r="C7">
-        <v>0.07477150236600494</v>
+        <v>0.07820657478530535</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05941394518883492</v>
+        <v>0.162350801611133</v>
       </c>
       <c r="F7">
-        <v>1.392111856657934</v>
+        <v>2.651833280853523</v>
       </c>
       <c r="G7">
-        <v>0.9284269367958302</v>
+        <v>1.596886454819483</v>
       </c>
       <c r="H7">
-        <v>0.6922693171610632</v>
+        <v>1.452597362080354</v>
       </c>
       <c r="I7">
-        <v>0.7800633733494564</v>
+        <v>1.525202835163157</v>
       </c>
       <c r="J7">
-        <v>0.08652344413657609</v>
+        <v>0.1101206199942961</v>
       </c>
       <c r="K7">
-        <v>0.6230322958123651</v>
+        <v>0.2969435911784899</v>
       </c>
       <c r="L7">
-        <v>0.1987409496356207</v>
+        <v>0.3756016766599402</v>
       </c>
       <c r="M7">
-        <v>0.1845171383617661</v>
+        <v>0.2159245291932379</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8550819103960237</v>
+        <v>0.5823000989115883</v>
       </c>
       <c r="C8">
-        <v>0.08314168314944936</v>
+        <v>0.08119240992969878</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0629765383891705</v>
+        <v>0.1623701026465056</v>
       </c>
       <c r="F8">
-        <v>1.46186440130694</v>
+        <v>2.650963629773202</v>
       </c>
       <c r="G8">
-        <v>0.9502937752069016</v>
+        <v>1.591240095302112</v>
       </c>
       <c r="H8">
-        <v>0.6921356858315733</v>
+        <v>1.443586440432668</v>
       </c>
       <c r="I8">
-        <v>0.7797533457560277</v>
+        <v>1.515421403969675</v>
       </c>
       <c r="J8">
-        <v>0.08710955756153638</v>
+        <v>0.1106896873998551</v>
       </c>
       <c r="K8">
-        <v>0.756621578975853</v>
+        <v>0.3339642361362394</v>
       </c>
       <c r="L8">
-        <v>0.2259256855991225</v>
+        <v>0.3802328036805704</v>
       </c>
       <c r="M8">
-        <v>0.219607356019079</v>
+        <v>0.2240474301395778</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.148959486953601</v>
+        <v>0.6590780939665422</v>
       </c>
       <c r="C9">
-        <v>0.09965502029722018</v>
+        <v>0.08685290076903129</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07037993426689226</v>
+        <v>0.1627574207846152</v>
       </c>
       <c r="F9">
-        <v>1.616420150357129</v>
+        <v>2.658273901206243</v>
       </c>
       <c r="G9">
-        <v>1.007134634260893</v>
+        <v>1.586174778665679</v>
       </c>
       <c r="H9">
-        <v>0.6998118976000001</v>
+        <v>1.430032212654837</v>
       </c>
       <c r="I9">
-        <v>0.7887775383244673</v>
+        <v>1.500923155677903</v>
       </c>
       <c r="J9">
-        <v>0.08826614751066941</v>
+        <v>0.1117831458663083</v>
       </c>
       <c r="K9">
-        <v>1.02166761190847</v>
+        <v>0.4074659662514364</v>
       </c>
       <c r="L9">
-        <v>0.280920237495863</v>
+        <v>0.3904756700188017</v>
       </c>
       <c r="M9">
-        <v>0.2897339791926896</v>
+        <v>0.2407562690972895</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.368426098160683</v>
+        <v>0.7166838497737729</v>
       </c>
       <c r="C10">
-        <v>0.1119472698408472</v>
+        <v>0.09089499802240653</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07610416415942112</v>
+        <v>0.1632530325303634</v>
       </c>
       <c r="F10">
-        <v>1.742528103013115</v>
+        <v>2.669131957960388</v>
       </c>
       <c r="G10">
-        <v>1.058772057175617</v>
+        <v>1.58612148934921</v>
       </c>
       <c r="H10">
-        <v>0.7108987272789591</v>
+        <v>1.422579090505906</v>
       </c>
       <c r="I10">
-        <v>0.8020417015442973</v>
+        <v>1.493124455442761</v>
       </c>
       <c r="J10">
-        <v>0.08911640509258589</v>
+        <v>0.1125722828817466</v>
       </c>
       <c r="K10">
-        <v>1.219320807571535</v>
+        <v>0.4620120918519035</v>
       </c>
       <c r="L10">
-        <v>0.3225801087235993</v>
+        <v>0.3987030562539502</v>
       </c>
       <c r="M10">
-        <v>0.3423264907198984</v>
+        <v>0.2535027149940987</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469303451204297</v>
+        <v>0.743147141038861</v>
       </c>
       <c r="C11">
-        <v>0.1175984188586412</v>
+        <v>0.09270897652548626</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07877746513271688</v>
+        <v>0.1635239155933768</v>
       </c>
       <c r="F11">
-        <v>1.803036861139674</v>
+        <v>2.675261442618492</v>
       </c>
       <c r="G11">
-        <v>1.084736627907745</v>
+        <v>1.586895207426579</v>
       </c>
       <c r="H11">
-        <v>0.7172716666855763</v>
+        <v>1.419731635768514</v>
       </c>
       <c r="I11">
-        <v>0.809699624793609</v>
+        <v>1.490195862413955</v>
       </c>
       <c r="J11">
-        <v>0.08950244044489963</v>
+        <v>0.1129280879384069</v>
       </c>
       <c r="K11">
-        <v>1.310126824003106</v>
+        <v>0.486943669054142</v>
       </c>
       <c r="L11">
-        <v>0.3418594847108523</v>
+        <v>0.4025971451451085</v>
       </c>
       <c r="M11">
-        <v>0.3665494203259527</v>
+        <v>0.2594026119793256</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.507676279907685</v>
+        <v>0.7532048341371365</v>
       </c>
       <c r="C12">
-        <v>0.1197491184818915</v>
+        <v>0.09339234734861179</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07980038700696213</v>
+        <v>0.1636329874008453</v>
       </c>
       <c r="F12">
-        <v>1.826438729327336</v>
+        <v>2.677753442198039</v>
       </c>
       <c r="G12">
-        <v>1.094954313896054</v>
+        <v>1.587303024140638</v>
       </c>
       <c r="H12">
-        <v>0.719889399607581</v>
+        <v>1.418731390251168</v>
       </c>
       <c r="I12">
-        <v>0.8128495978517023</v>
+        <v>1.489175869390465</v>
       </c>
       <c r="J12">
-        <v>0.08964843453710714</v>
+        <v>0.1130623549868517</v>
       </c>
       <c r="K12">
-        <v>1.344663689425403</v>
+        <v>0.4964013964464584</v>
       </c>
       <c r="L12">
-        <v>0.3492120928408298</v>
+        <v>0.4040933847192179</v>
       </c>
       <c r="M12">
-        <v>0.3757706630829105</v>
+        <v>0.2616512296944435</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.499403933422343</v>
+        <v>0.7510371092953392</v>
       </c>
       <c r="C13">
-        <v>0.1192854123220783</v>
+        <v>0.09324532846724765</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07957960044109313</v>
+        <v>0.1636092086055214</v>
       </c>
       <c r="F13">
-        <v>1.821376376103942</v>
+        <v>2.677209148616498</v>
       </c>
       <c r="G13">
-        <v>1.092736111224923</v>
+        <v>1.587210085290948</v>
       </c>
       <c r="H13">
-        <v>0.7193163088856522</v>
+        <v>1.418943341839068</v>
       </c>
       <c r="I13">
-        <v>0.8121597946041419</v>
+        <v>1.489391585092349</v>
       </c>
       <c r="J13">
-        <v>0.08961700184704924</v>
+        <v>0.1130334592024234</v>
       </c>
       <c r="K13">
-        <v>1.337218485856681</v>
+        <v>0.4943637689648597</v>
       </c>
       <c r="L13">
-        <v>0.3476261882523062</v>
+        <v>0.4037701828623028</v>
       </c>
       <c r="M13">
-        <v>0.3737824497789717</v>
+        <v>0.261166308935195</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.472456805613689</v>
+        <v>0.7439738624685504</v>
       </c>
       <c r="C14">
-        <v>0.1177751298018777</v>
+        <v>0.09276526874704416</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07886140528816554</v>
+        <v>0.1635327590590947</v>
       </c>
       <c r="F14">
-        <v>1.80495213582067</v>
+        <v>2.675463037263398</v>
       </c>
       <c r="G14">
-        <v>1.085569339515231</v>
+        <v>1.586926456997773</v>
       </c>
       <c r="H14">
-        <v>0.7174828521191756</v>
+        <v>1.419647781596481</v>
       </c>
       <c r="I14">
-        <v>0.8099536634309388</v>
+        <v>1.490110163366566</v>
       </c>
       <c r="J14">
-        <v>0.08951445573713102</v>
+        <v>0.1129391436275711</v>
       </c>
       <c r="K14">
-        <v>1.312965040585254</v>
+        <v>0.4877214295497367</v>
       </c>
       <c r="L14">
-        <v>0.3424633190536213</v>
+        <v>0.4027198089245871</v>
       </c>
       <c r="M14">
-        <v>0.3673070506910037</v>
+        <v>0.2595873182007011</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.455974127496489</v>
+        <v>0.7396521738688762</v>
       </c>
       <c r="C15">
-        <v>0.1168515045127307</v>
+        <v>0.09247075748286449</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0784228901122539</v>
+        <v>0.1634867761235768</v>
       </c>
       <c r="F15">
-        <v>1.794956572065416</v>
+        <v>2.674415742371394</v>
       </c>
       <c r="G15">
-        <v>1.081230604153376</v>
+        <v>1.586767682669304</v>
       </c>
       <c r="H15">
-        <v>0.7163868426694222</v>
+        <v>1.420089430517436</v>
       </c>
       <c r="I15">
-        <v>0.808635426288312</v>
+        <v>1.490561903336541</v>
       </c>
       <c r="J15">
-        <v>0.08945161617459618</v>
+        <v>0.1128813112433171</v>
       </c>
       <c r="K15">
-        <v>1.298129408554246</v>
+        <v>0.4836549674417938</v>
       </c>
       <c r="L15">
-        <v>0.3393078219591104</v>
+        <v>0.4020792376211801</v>
       </c>
       <c r="M15">
-        <v>0.3633471788388931</v>
+        <v>0.2586220191595316</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3618564031365</v>
+        <v>0.714959563021381</v>
       </c>
       <c r="C16">
-        <v>0.1115793314881799</v>
+        <v>0.0907759532304695</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07593090560895277</v>
+        <v>0.1632362405326582</v>
       </c>
       <c r="F16">
-        <v>1.738640009704909</v>
+        <v>2.668755309225574</v>
       </c>
       <c r="G16">
-        <v>1.057127484697716</v>
+        <v>1.586086988957533</v>
       </c>
       <c r="H16">
-        <v>0.710510103010094</v>
+        <v>1.422776099924931</v>
       </c>
       <c r="I16">
-        <v>0.8015753030856274</v>
+        <v>1.493328301483807</v>
       </c>
       <c r="J16">
-        <v>0.08909115482391172</v>
+        <v>0.1125489652446063</v>
       </c>
       <c r="K16">
-        <v>1.213406242676513</v>
+        <v>0.4603851065674576</v>
       </c>
       <c r="L16">
-        <v>0.3213271560797182</v>
+        <v>0.3984516031670182</v>
       </c>
       <c r="M16">
-        <v>0.3407499411682693</v>
+        <v>0.2531191730438067</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304400680623615</v>
+        <v>0.699877205111477</v>
       </c>
       <c r="C17">
-        <v>0.1083617253063096</v>
+        <v>0.08972991126658059</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07442034445881873</v>
+        <v>0.1630941528358818</v>
       </c>
       <c r="F17">
-        <v>1.704921555937787</v>
+        <v>2.665587460649931</v>
       </c>
       <c r="G17">
-        <v>1.042995133530255</v>
+        <v>1.585873839628974</v>
       </c>
       <c r="H17">
-        <v>0.7072545345476868</v>
+        <v>1.424563318976979</v>
       </c>
       <c r="I17">
-        <v>0.7976714681709112</v>
+        <v>1.495183942300322</v>
       </c>
       <c r="J17">
-        <v>0.08886977469325785</v>
+        <v>0.1123442595806701</v>
       </c>
       <c r="K17">
-        <v>1.161675205142529</v>
+        <v>0.4461398594335719</v>
       </c>
       <c r="L17">
-        <v>0.3103839008140739</v>
+        <v>0.3962648468901051</v>
       </c>
       <c r="M17">
-        <v>0.3269675585708498</v>
+        <v>0.2497692475348643</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271450154828131</v>
+        <v>0.6912265593276743</v>
       </c>
       <c r="C18">
-        <v>0.10651648590202</v>
+        <v>0.08912592078551285</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07355799389107176</v>
+        <v>0.1630167058018372</v>
       </c>
       <c r="F18">
-        <v>1.685820938200749</v>
+        <v>2.663877430042319</v>
       </c>
       <c r="G18">
-        <v>1.035097577638481</v>
+        <v>1.585826344682957</v>
       </c>
       <c r="H18">
-        <v>0.7055063010783726</v>
+        <v>1.42564239411675</v>
       </c>
       <c r="I18">
-        <v>0.795577878349313</v>
+        <v>1.496309529271656</v>
       </c>
       <c r="J18">
-        <v>0.08874237708780441</v>
+        <v>0.1122262199224302</v>
       </c>
       <c r="K18">
-        <v>1.132003459945849</v>
+        <v>0.4379575217284071</v>
       </c>
       <c r="L18">
-        <v>0.3041202069107385</v>
+        <v>0.3950213422459967</v>
       </c>
       <c r="M18">
-        <v>0.3190680139903748</v>
+        <v>0.2478520184397723</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.260309570687127</v>
+        <v>0.6883017929177697</v>
       </c>
       <c r="C19">
-        <v>0.1058925905539354</v>
+        <v>0.08892101832115173</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07326711193398339</v>
+        <v>0.1629912194876901</v>
       </c>
       <c r="F19">
-        <v>1.679403104313067</v>
+        <v>2.663317691942112</v>
       </c>
       <c r="G19">
-        <v>1.032462409556487</v>
+        <v>1.585823160245596</v>
       </c>
       <c r="H19">
-        <v>0.7049353379795633</v>
+        <v>1.426016531144825</v>
       </c>
       <c r="I19">
-        <v>0.7948946116690081</v>
+        <v>1.496700642495881</v>
       </c>
       <c r="J19">
-        <v>0.08869923358232512</v>
+        <v>0.112186202835062</v>
       </c>
       <c r="K19">
-        <v>1.121970651167544</v>
+        <v>0.4351890480774045</v>
       </c>
       <c r="L19">
-        <v>0.3020045404298344</v>
+        <v>0.3946027663314027</v>
       </c>
       <c r="M19">
-        <v>0.3163979594497093</v>
+        <v>0.2472045236455003</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.310506793004038</v>
+        <v>0.7014802336899493</v>
       </c>
       <c r="C20">
-        <v>0.1087036664023984</v>
+        <v>0.0898415057086126</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07458047073684781</v>
+        <v>0.1631088358278951</v>
       </c>
       <c r="F20">
-        <v>1.708480325364164</v>
+        <v>2.665913090357506</v>
       </c>
       <c r="G20">
-        <v>1.04447543162847</v>
+        <v>1.585888756279672</v>
       </c>
       <c r="H20">
-        <v>0.7075881397939412</v>
+        <v>1.424367776783726</v>
       </c>
       <c r="I20">
-        <v>0.7980712122495817</v>
+        <v>1.494980375437713</v>
       </c>
       <c r="J20">
-        <v>0.08889334835032514</v>
+        <v>0.1123660818133168</v>
       </c>
       <c r="K20">
-        <v>1.167173360322607</v>
+        <v>0.4476551385285745</v>
       </c>
       <c r="L20">
-        <v>0.3115456311294338</v>
+        <v>0.3964961560158002</v>
       </c>
       <c r="M20">
-        <v>0.3284318085784221</v>
+        <v>0.2501248644521468</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.480366948277037</v>
+        <v>0.7460475194338585</v>
       </c>
       <c r="C21">
-        <v>0.118218426584356</v>
+        <v>0.09290636992053436</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0790720636417781</v>
+        <v>0.1635550381939268</v>
       </c>
       <c r="F21">
-        <v>1.809762768297546</v>
+        <v>2.675971276304466</v>
       </c>
       <c r="G21">
-        <v>1.087663684613545</v>
+        <v>1.587006648502182</v>
       </c>
       <c r="H21">
-        <v>0.7180157234034397</v>
+        <v>1.419438753496181</v>
       </c>
       <c r="I21">
-        <v>0.8105947319915074</v>
+        <v>1.489896684193546</v>
       </c>
       <c r="J21">
-        <v>0.08954458181619884</v>
+        <v>0.1129668592084236</v>
       </c>
       <c r="K21">
-        <v>1.320084591844761</v>
+        <v>0.4896719955509354</v>
       </c>
       <c r="L21">
-        <v>0.3439783300028267</v>
+        <v>0.4030277432211875</v>
       </c>
       <c r="M21">
-        <v>0.369207667682879</v>
+        <v>0.2600507148469049</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.592399458912411</v>
+        <v>0.7753880296432101</v>
       </c>
       <c r="C22">
-        <v>0.1245005985562813</v>
+        <v>0.09488879185794019</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0820696959716436</v>
+        <v>0.1638844932600776</v>
       </c>
       <c r="F22">
-        <v>1.878823260872821</v>
+        <v>2.683540888700634</v>
       </c>
       <c r="G22">
-        <v>1.1181520016452</v>
+        <v>1.588406589591784</v>
       </c>
       <c r="H22">
-        <v>0.7260293209461679</v>
+        <v>1.416672106829338</v>
       </c>
       <c r="I22">
-        <v>0.8202459016953085</v>
+        <v>1.487092958178117</v>
       </c>
       <c r="J22">
-        <v>0.08996905727448734</v>
+        <v>0.1133567652302183</v>
       </c>
       <c r="K22">
-        <v>1.420910384703433</v>
+        <v>0.5172295149215813</v>
       </c>
       <c r="L22">
-        <v>0.365480107216186</v>
+        <v>0.407422539909021</v>
       </c>
       <c r="M22">
-        <v>0.3961429509027354</v>
+        <v>0.2666220220788205</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.532504233990522</v>
+        <v>0.7597091033229049</v>
       </c>
       <c r="C23">
-        <v>0.121141073446779</v>
+        <v>0.09383261775032281</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08046389837084789</v>
+        <v>0.1637052074247691</v>
       </c>
       <c r="F23">
-        <v>1.841689196290005</v>
+        <v>2.67940978821828</v>
       </c>
       <c r="G23">
-        <v>1.101662388633528</v>
+        <v>1.5875981439426</v>
       </c>
       <c r="H23">
-        <v>0.7216379786261058</v>
+        <v>1.418107127790833</v>
       </c>
       <c r="I23">
-        <v>0.8149549044007358</v>
+        <v>1.488541899666785</v>
       </c>
       <c r="J23">
-        <v>0.0897426393209706</v>
+        <v>0.1131489192983786</v>
       </c>
       <c r="K23">
-        <v>1.367008541675631</v>
+        <v>0.5025127734906505</v>
       </c>
       <c r="L23">
-        <v>0.3539746214335793</v>
+        <v>0.4050654688500543</v>
       </c>
       <c r="M23">
-        <v>0.3817389407951808</v>
+        <v>0.2631071335083135</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307745967358386</v>
+        <v>0.7007554408803287</v>
       </c>
       <c r="C24">
-        <v>0.1085490606522796</v>
+        <v>0.08979106198508191</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07450805872123922</v>
+        <v>0.1631021844343081</v>
       </c>
       <c r="F24">
-        <v>1.706870522078418</v>
+        <v>2.665765526740245</v>
       </c>
       <c r="G24">
-        <v>1.043805483016953</v>
+        <v>1.585881778694585</v>
       </c>
       <c r="H24">
-        <v>0.7074369333757744</v>
+        <v>1.424456020733004</v>
       </c>
       <c r="I24">
-        <v>0.7978900195515664</v>
+        <v>1.495072224993557</v>
       </c>
       <c r="J24">
-        <v>0.08888269107774605</v>
+        <v>0.1123562170755967</v>
       </c>
       <c r="K24">
-        <v>1.16468743074023</v>
+        <v>0.4469700576376567</v>
       </c>
       <c r="L24">
-        <v>0.3110203268379195</v>
+        <v>0.3963915385057959</v>
       </c>
       <c r="M24">
-        <v>0.3277697464095368</v>
+        <v>0.2499640629727082</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.068917529194295</v>
+        <v>0.6380962630893521</v>
       </c>
       <c r="C25">
-        <v>0.09516732755175639</v>
+        <v>0.08534222344727738</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0683294162385657</v>
+        <v>0.1626154348707871</v>
       </c>
       <c r="F25">
-        <v>1.572535468158321</v>
+        <v>2.65533201995828</v>
       </c>
       <c r="G25">
-        <v>0.9901280036951619</v>
+        <v>1.586901344460074</v>
       </c>
       <c r="H25">
-        <v>0.6968253388795489</v>
+        <v>1.433258759159017</v>
       </c>
       <c r="I25">
-        <v>0.7852296373184871</v>
+        <v>1.504344143160765</v>
       </c>
       <c r="J25">
-        <v>0.08795288007038238</v>
+        <v>0.1114897975399565</v>
       </c>
       <c r="K25">
-        <v>0.9495326299611975</v>
+        <v>0.3874857053892242</v>
       </c>
       <c r="L25">
-        <v>0.2658397138848159</v>
+        <v>0.3875810035151517</v>
       </c>
       <c r="M25">
-        <v>0.2705954851940433</v>
+        <v>0.2361531115194708</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5927688107317977</v>
+        <v>0.8953644168077801</v>
       </c>
       <c r="C2">
-        <v>0.08198816812695497</v>
+        <v>0.08541291065007783</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1623990570935394</v>
+        <v>0.06396898550504559</v>
       </c>
       <c r="F2">
-        <v>2.651338463334199</v>
+        <v>1.481906609630357</v>
       </c>
       <c r="G2">
-        <v>1.590116522096409</v>
+        <v>0.9571159729806453</v>
       </c>
       <c r="H2">
-        <v>1.441423647620056</v>
+        <v>0.6926156454283046</v>
       </c>
       <c r="I2">
-        <v>1.513088120598908</v>
+        <v>0.7802947561177049</v>
       </c>
       <c r="J2">
-        <v>0.1108423745061238</v>
+        <v>0.08726899413952083</v>
       </c>
       <c r="K2">
-        <v>0.3440564424601291</v>
+        <v>0.7929896514471579</v>
       </c>
       <c r="L2">
-        <v>0.3815664171981723</v>
+        <v>0.233397511324398</v>
       </c>
       <c r="M2">
-        <v>0.2263012922041483</v>
+        <v>0.229194697598043</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5625585361359242</v>
+        <v>0.778813777559634</v>
       </c>
       <c r="C3">
-        <v>0.07966545906609213</v>
+        <v>0.07883082104509498</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1623416491463523</v>
+        <v>0.06112151304093949</v>
       </c>
       <c r="F3">
-        <v>2.650935579588278</v>
+        <v>1.42508316278996</v>
       </c>
       <c r="G3">
-        <v>1.593830716240106</v>
+        <v>0.9383537575935605</v>
       </c>
       <c r="H3">
-        <v>1.448008630242668</v>
+        <v>0.6918101679889048</v>
       </c>
       <c r="I3">
-        <v>1.52021051249455</v>
+        <v>0.7794355540137445</v>
       </c>
       <c r="J3">
-        <v>0.1103978555219349</v>
+        <v>0.08680724228766579</v>
       </c>
       <c r="K3">
-        <v>0.3148555271466478</v>
+        <v>0.6877203122825364</v>
       </c>
       <c r="L3">
-        <v>0.3777868916016587</v>
+        <v>0.2118494476031003</v>
       </c>
       <c r="M3">
-        <v>0.2198238735868969</v>
+        <v>0.2014819888736312</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5442621926219999</v>
+        <v>0.7076688480094333</v>
       </c>
       <c r="C4">
-        <v>0.07821460717375572</v>
+        <v>0.0747936902920685</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1623506468434712</v>
+        <v>0.05942316369453238</v>
       </c>
       <c r="F4">
-        <v>2.651825687326593</v>
+        <v>1.392287322689853</v>
       </c>
       <c r="G4">
-        <v>1.596867967201533</v>
+        <v>0.9284774696541547</v>
       </c>
       <c r="H4">
-        <v>1.452571055002608</v>
+        <v>0.6922646366005978</v>
       </c>
       <c r="I4">
-        <v>1.525174154289118</v>
+        <v>0.780057316038544</v>
       </c>
       <c r="J4">
-        <v>0.110122141760078</v>
+        <v>0.08652499180288231</v>
       </c>
       <c r="K4">
-        <v>0.2970412192054965</v>
+        <v>0.6233852695241779</v>
       </c>
       <c r="L4">
-        <v>0.3756132723900691</v>
+        <v>0.1988121664829023</v>
       </c>
       <c r="M4">
-        <v>0.2159456075824586</v>
+        <v>0.1846095554718374</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5368703563343047</v>
+        <v>0.6787670034879625</v>
       </c>
       <c r="C5">
-        <v>0.07761713939631676</v>
+        <v>0.07314827514755962</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1623654786881996</v>
+        <v>0.05874323083645017</v>
       </c>
       <c r="F5">
-        <v>2.652474726800619</v>
+        <v>1.37942526157812</v>
       </c>
       <c r="G5">
-        <v>1.598295920654948</v>
+        <v>0.9248470564810418</v>
       </c>
       <c r="H5">
-        <v>1.45456093461442</v>
+        <v>0.6926799852748644</v>
       </c>
       <c r="I5">
-        <v>1.527345413321882</v>
+        <v>0.780588998268982</v>
       </c>
       <c r="J5">
-        <v>0.110009099068014</v>
+        <v>0.08641035483934445</v>
       </c>
       <c r="K5">
-        <v>0.2898110106710448</v>
+        <v>0.5972297360751924</v>
       </c>
       <c r="L5">
-        <v>0.3747646154625315</v>
+        <v>0.1935448700337687</v>
       </c>
       <c r="M5">
-        <v>0.2143901844867777</v>
+        <v>0.177766294499861</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5356468315958125</v>
+        <v>0.6739729135490506</v>
       </c>
       <c r="C6">
-        <v>0.07751755314645692</v>
+        <v>0.07287500268655833</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.162368617006873</v>
+        <v>0.05863105105951938</v>
       </c>
       <c r="F6">
-        <v>2.652599800326215</v>
+        <v>1.377319197071145</v>
       </c>
       <c r="G6">
-        <v>1.598544520818763</v>
+        <v>0.9242675022448879</v>
       </c>
       <c r="H6">
-        <v>1.454899246554405</v>
+        <v>0.6927626143766759</v>
       </c>
       <c r="I6">
-        <v>1.527714922066352</v>
+        <v>0.7806937908037241</v>
       </c>
       <c r="J6">
-        <v>0.1099902872498202</v>
+        <v>0.0863913444101243</v>
       </c>
       <c r="K6">
-        <v>0.2886122167379028</v>
+        <v>0.5928899486203534</v>
       </c>
       <c r="L6">
-        <v>0.3746259421378042</v>
+        <v>0.1926728999160474</v>
       </c>
       <c r="M6">
-        <v>0.2141334216631137</v>
+        <v>0.1766318302747223</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5441622436649993</v>
+        <v>0.7072787208777527</v>
       </c>
       <c r="C7">
-        <v>0.07820657478530535</v>
+        <v>0.07477150236576335</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.162350801611133</v>
+        <v>0.05941394518883669</v>
       </c>
       <c r="F7">
-        <v>2.651833280853523</v>
+        <v>1.392111856657934</v>
       </c>
       <c r="G7">
-        <v>1.596886454819483</v>
+        <v>0.9284269367957876</v>
       </c>
       <c r="H7">
-        <v>1.452597362080354</v>
+        <v>0.6922693171610632</v>
       </c>
       <c r="I7">
-        <v>1.525202835163157</v>
+        <v>0.7800633733494564</v>
       </c>
       <c r="J7">
-        <v>0.1101206199942961</v>
+        <v>0.08652344413651569</v>
       </c>
       <c r="K7">
-        <v>0.2969435911784899</v>
+        <v>0.6230322958123651</v>
       </c>
       <c r="L7">
-        <v>0.3756016766599402</v>
+        <v>0.1987409496356776</v>
       </c>
       <c r="M7">
-        <v>0.2159245291932379</v>
+        <v>0.1845171383617483</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5823000989115883</v>
+        <v>0.8550819103961658</v>
       </c>
       <c r="C8">
-        <v>0.08119240992969878</v>
+        <v>0.08314168314993253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1623701026465056</v>
+        <v>0.06297653838916695</v>
       </c>
       <c r="F8">
-        <v>2.650963629773202</v>
+        <v>1.461864401306954</v>
       </c>
       <c r="G8">
-        <v>1.591240095302112</v>
+        <v>0.9502937752069585</v>
       </c>
       <c r="H8">
-        <v>1.443586440432668</v>
+        <v>0.6921356858315875</v>
       </c>
       <c r="I8">
-        <v>1.515421403969675</v>
+        <v>0.7797533457560277</v>
       </c>
       <c r="J8">
-        <v>0.1106896873998551</v>
+        <v>0.08710955756154348</v>
       </c>
       <c r="K8">
-        <v>0.3339642361362394</v>
+        <v>0.7566215789759383</v>
       </c>
       <c r="L8">
-        <v>0.3802328036805704</v>
+        <v>0.2259256855990799</v>
       </c>
       <c r="M8">
-        <v>0.2240474301395778</v>
+        <v>0.219607356019079</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6590780939665422</v>
+        <v>1.148959486953743</v>
       </c>
       <c r="C9">
-        <v>0.08685290076903129</v>
+        <v>0.09965502029732676</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1627574207846152</v>
+        <v>0.07037993426688516</v>
       </c>
       <c r="F9">
-        <v>2.658273901206243</v>
+        <v>1.616420150357101</v>
       </c>
       <c r="G9">
-        <v>1.586174778665679</v>
+        <v>1.007134634260922</v>
       </c>
       <c r="H9">
-        <v>1.430032212654837</v>
+        <v>0.6998118975998722</v>
       </c>
       <c r="I9">
-        <v>1.500923155677903</v>
+        <v>0.7887775383244531</v>
       </c>
       <c r="J9">
-        <v>0.1117831458663083</v>
+        <v>0.08826614751065165</v>
       </c>
       <c r="K9">
-        <v>0.4074659662514364</v>
+        <v>1.021667611908526</v>
       </c>
       <c r="L9">
-        <v>0.3904756700188017</v>
+        <v>0.2809202374958062</v>
       </c>
       <c r="M9">
-        <v>0.2407562690972895</v>
+        <v>0.2897339791926754</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7166838497737729</v>
+        <v>1.368426098160626</v>
       </c>
       <c r="C10">
-        <v>0.09089499802240653</v>
+        <v>0.1119472698412309</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1632530325303634</v>
+        <v>0.07610416415942112</v>
       </c>
       <c r="F10">
-        <v>2.669131957960388</v>
+        <v>1.742528103013115</v>
       </c>
       <c r="G10">
-        <v>1.58612148934921</v>
+        <v>1.058772057175659</v>
       </c>
       <c r="H10">
-        <v>1.422579090505906</v>
+        <v>0.7108987272790728</v>
       </c>
       <c r="I10">
-        <v>1.493124455442761</v>
+        <v>0.8020417015442902</v>
       </c>
       <c r="J10">
-        <v>0.1125722828817466</v>
+        <v>0.08911640509270313</v>
       </c>
       <c r="K10">
-        <v>0.4620120918519035</v>
+        <v>1.219320807571421</v>
       </c>
       <c r="L10">
-        <v>0.3987030562539502</v>
+        <v>0.3225801087235141</v>
       </c>
       <c r="M10">
-        <v>0.2535027149940987</v>
+        <v>0.3423264907199197</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.743147141038861</v>
+        <v>1.469303451204354</v>
       </c>
       <c r="C11">
-        <v>0.09270897652548626</v>
+        <v>0.1175984188587478</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1635239155933768</v>
+        <v>0.07877746513272399</v>
       </c>
       <c r="F11">
-        <v>2.675261442618492</v>
+        <v>1.803036861139702</v>
       </c>
       <c r="G11">
-        <v>1.586895207426579</v>
+        <v>1.084736627907688</v>
       </c>
       <c r="H11">
-        <v>1.419731635768514</v>
+        <v>0.7172716666855763</v>
       </c>
       <c r="I11">
-        <v>1.490195862413955</v>
+        <v>0.8096996247936303</v>
       </c>
       <c r="J11">
-        <v>0.1129280879384069</v>
+        <v>0.08950244044482503</v>
       </c>
       <c r="K11">
-        <v>0.486943669054142</v>
+        <v>1.310126824002992</v>
       </c>
       <c r="L11">
-        <v>0.4025971451451085</v>
+        <v>0.341859484710838</v>
       </c>
       <c r="M11">
-        <v>0.2594026119793256</v>
+        <v>0.3665494203259527</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7532048341371365</v>
+        <v>1.507676279907685</v>
       </c>
       <c r="C12">
-        <v>0.09339234734861179</v>
+        <v>0.1197491184817423</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1636329874008453</v>
+        <v>0.07980038700695857</v>
       </c>
       <c r="F12">
-        <v>2.677753442198039</v>
+        <v>1.826438729327336</v>
       </c>
       <c r="G12">
-        <v>1.587303024140638</v>
+        <v>1.094954313896025</v>
       </c>
       <c r="H12">
-        <v>1.418731390251168</v>
+        <v>0.7198893996074673</v>
       </c>
       <c r="I12">
-        <v>1.489175869390465</v>
+        <v>0.8128495978517023</v>
       </c>
       <c r="J12">
-        <v>0.1130623549868517</v>
+        <v>0.08964843453725635</v>
       </c>
       <c r="K12">
-        <v>0.4964013964464584</v>
+        <v>1.344663689425346</v>
       </c>
       <c r="L12">
-        <v>0.4040933847192179</v>
+        <v>0.349212092840844</v>
       </c>
       <c r="M12">
-        <v>0.2616512296944435</v>
+        <v>0.3757706630829105</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7510371092953392</v>
+        <v>1.499403933422343</v>
       </c>
       <c r="C13">
-        <v>0.09324532846724765</v>
+        <v>0.1192854123222205</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1636092086055214</v>
+        <v>0.07957960044109313</v>
       </c>
       <c r="F13">
-        <v>2.677209148616498</v>
+        <v>1.821376376103927</v>
       </c>
       <c r="G13">
-        <v>1.587210085290948</v>
+        <v>1.092736111224923</v>
       </c>
       <c r="H13">
-        <v>1.418943341839068</v>
+        <v>0.7193163088856522</v>
       </c>
       <c r="I13">
-        <v>1.489391585092349</v>
+        <v>0.8121597946041348</v>
       </c>
       <c r="J13">
-        <v>0.1130334592024234</v>
+        <v>0.089617001847202</v>
       </c>
       <c r="K13">
-        <v>0.4943637689648597</v>
+        <v>1.337218485856624</v>
       </c>
       <c r="L13">
-        <v>0.4037701828623028</v>
+        <v>0.3476261882523346</v>
       </c>
       <c r="M13">
-        <v>0.261166308935195</v>
+        <v>0.3737824497789717</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7439738624685504</v>
+        <v>1.472456805613717</v>
       </c>
       <c r="C14">
-        <v>0.09276526874704416</v>
+        <v>0.1177751298021192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1635327590590947</v>
+        <v>0.07886140528815844</v>
       </c>
       <c r="F14">
-        <v>2.675463037263398</v>
+        <v>1.804952135820656</v>
       </c>
       <c r="G14">
-        <v>1.586926456997773</v>
+        <v>1.085569339515231</v>
       </c>
       <c r="H14">
-        <v>1.419647781596481</v>
+        <v>0.7174828521190619</v>
       </c>
       <c r="I14">
-        <v>1.490110163366566</v>
+        <v>0.8099536634309246</v>
       </c>
       <c r="J14">
-        <v>0.1129391436275711</v>
+        <v>0.08951445573717365</v>
       </c>
       <c r="K14">
-        <v>0.4877214295497367</v>
+        <v>1.312965040585283</v>
       </c>
       <c r="L14">
-        <v>0.4027198089245871</v>
+        <v>0.3424633190535928</v>
       </c>
       <c r="M14">
-        <v>0.2595873182007011</v>
+        <v>0.3673070506909895</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7396521738688762</v>
+        <v>1.455974127496404</v>
       </c>
       <c r="C15">
-        <v>0.09247075748286449</v>
+        <v>0.1168515045127165</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1634867761235768</v>
+        <v>0.078422890112261</v>
       </c>
       <c r="F15">
-        <v>2.674415742371394</v>
+        <v>1.794956572065402</v>
       </c>
       <c r="G15">
-        <v>1.586767682669304</v>
+        <v>1.081230604153362</v>
       </c>
       <c r="H15">
-        <v>1.420089430517436</v>
+        <v>0.7163868426694222</v>
       </c>
       <c r="I15">
-        <v>1.490561903336541</v>
+        <v>0.808635426288312</v>
       </c>
       <c r="J15">
-        <v>0.1128813112433171</v>
+        <v>0.08945161617460684</v>
       </c>
       <c r="K15">
-        <v>0.4836549674417938</v>
+        <v>1.29812940855436</v>
       </c>
       <c r="L15">
-        <v>0.4020792376211801</v>
+        <v>0.339307821959224</v>
       </c>
       <c r="M15">
-        <v>0.2586220191595316</v>
+        <v>0.3633471788389144</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.714959563021381</v>
+        <v>1.3618564031365</v>
       </c>
       <c r="C16">
-        <v>0.0907759532304695</v>
+        <v>0.111579331488187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1632362405326582</v>
+        <v>0.07593090560895277</v>
       </c>
       <c r="F16">
-        <v>2.668755309225574</v>
+        <v>1.738640009704923</v>
       </c>
       <c r="G16">
-        <v>1.586086988957533</v>
+        <v>1.057127484697745</v>
       </c>
       <c r="H16">
-        <v>1.422776099924931</v>
+        <v>0.7105101030099945</v>
       </c>
       <c r="I16">
-        <v>1.493328301483807</v>
+        <v>0.8015753030856487</v>
       </c>
       <c r="J16">
-        <v>0.1125489652446063</v>
+        <v>0.08909115482385843</v>
       </c>
       <c r="K16">
-        <v>0.4603851065674576</v>
+        <v>1.213406242676484</v>
       </c>
       <c r="L16">
-        <v>0.3984516031670182</v>
+        <v>0.3213271560796613</v>
       </c>
       <c r="M16">
-        <v>0.2531191730438067</v>
+        <v>0.3407499411682764</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.699877205111477</v>
+        <v>1.304400680623615</v>
       </c>
       <c r="C17">
-        <v>0.08972991126658059</v>
+        <v>0.1083617253063025</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1630941528358818</v>
+        <v>0.07442034445881518</v>
       </c>
       <c r="F17">
-        <v>2.665587460649931</v>
+        <v>1.704921555937787</v>
       </c>
       <c r="G17">
-        <v>1.585873839628974</v>
+        <v>1.042995133530283</v>
       </c>
       <c r="H17">
-        <v>1.424563318976979</v>
+        <v>0.7072545345475731</v>
       </c>
       <c r="I17">
-        <v>1.495183942300322</v>
+        <v>0.7976714681709183</v>
       </c>
       <c r="J17">
-        <v>0.1123442595806701</v>
+        <v>0.08886977469317614</v>
       </c>
       <c r="K17">
-        <v>0.4461398594335719</v>
+        <v>1.161675205142416</v>
       </c>
       <c r="L17">
-        <v>0.3962648468901051</v>
+        <v>0.3103839008140312</v>
       </c>
       <c r="M17">
-        <v>0.2497692475348643</v>
+        <v>0.3269675585708498</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6912265593276743</v>
+        <v>1.271450154828244</v>
       </c>
       <c r="C18">
-        <v>0.08912592078551285</v>
+        <v>0.1065164859020058</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1630167058018372</v>
+        <v>0.07355799389109308</v>
       </c>
       <c r="F18">
-        <v>2.663877430042319</v>
+        <v>1.685820938200777</v>
       </c>
       <c r="G18">
-        <v>1.585826344682957</v>
+        <v>1.035097577638538</v>
       </c>
       <c r="H18">
-        <v>1.42564239411675</v>
+        <v>0.7055063010784863</v>
       </c>
       <c r="I18">
-        <v>1.496309529271656</v>
+        <v>0.7955778783493344</v>
       </c>
       <c r="J18">
-        <v>0.1122262199224302</v>
+        <v>0.0887423770877831</v>
       </c>
       <c r="K18">
-        <v>0.4379575217284071</v>
+        <v>1.132003459945906</v>
       </c>
       <c r="L18">
-        <v>0.3950213422459967</v>
+        <v>0.3041202069107243</v>
       </c>
       <c r="M18">
-        <v>0.2478520184397723</v>
+        <v>0.319068013990389</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6883017929177697</v>
+        <v>1.260309570687241</v>
       </c>
       <c r="C19">
-        <v>0.08892101832115173</v>
+        <v>0.1058925905538075</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1629912194876901</v>
+        <v>0.07326711193397628</v>
       </c>
       <c r="F19">
-        <v>2.663317691942112</v>
+        <v>1.67940310431311</v>
       </c>
       <c r="G19">
-        <v>1.585823160245596</v>
+        <v>1.032462409556587</v>
       </c>
       <c r="H19">
-        <v>1.426016531144825</v>
+        <v>0.7049353379795633</v>
       </c>
       <c r="I19">
-        <v>1.496700642495881</v>
+        <v>0.7948946116690294</v>
       </c>
       <c r="J19">
-        <v>0.112186202835062</v>
+        <v>0.08869923358231802</v>
       </c>
       <c r="K19">
-        <v>0.4351890480774045</v>
+        <v>1.121970651167771</v>
       </c>
       <c r="L19">
-        <v>0.3946027663314027</v>
+        <v>0.302004540429877</v>
       </c>
       <c r="M19">
-        <v>0.2472045236455003</v>
+        <v>0.3163979594497093</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7014802336899493</v>
+        <v>1.310506793004123</v>
       </c>
       <c r="C20">
-        <v>0.0898415057086126</v>
+        <v>0.1087036664026542</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1631088358278951</v>
+        <v>0.07458047073684781</v>
       </c>
       <c r="F20">
-        <v>2.665913090357506</v>
+        <v>1.708480325364164</v>
       </c>
       <c r="G20">
-        <v>1.585888756279672</v>
+        <v>1.044475431628442</v>
       </c>
       <c r="H20">
-        <v>1.424367776783726</v>
+        <v>0.7075881397939412</v>
       </c>
       <c r="I20">
-        <v>1.494980375437713</v>
+        <v>0.7980712122495888</v>
       </c>
       <c r="J20">
-        <v>0.1123660818133168</v>
+        <v>0.08889334835037133</v>
       </c>
       <c r="K20">
-        <v>0.4476551385285745</v>
+        <v>1.167173360322636</v>
       </c>
       <c r="L20">
-        <v>0.3964961560158002</v>
+        <v>0.3115456311294338</v>
       </c>
       <c r="M20">
-        <v>0.2501248644521468</v>
+        <v>0.328431808578415</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7460475194338585</v>
+        <v>1.480366948277009</v>
       </c>
       <c r="C21">
-        <v>0.09290636992053436</v>
+        <v>0.118218426584086</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1635550381939268</v>
+        <v>0.07907206364179231</v>
       </c>
       <c r="F21">
-        <v>2.675971276304466</v>
+        <v>1.809762768297531</v>
       </c>
       <c r="G21">
-        <v>1.587006648502182</v>
+        <v>1.087663684613446</v>
       </c>
       <c r="H21">
-        <v>1.419438753496181</v>
+        <v>0.7180157234035534</v>
       </c>
       <c r="I21">
-        <v>1.489896684193546</v>
+        <v>0.8105947319915145</v>
       </c>
       <c r="J21">
-        <v>0.1129668592084236</v>
+        <v>0.08954458181617753</v>
       </c>
       <c r="K21">
-        <v>0.4896719955509354</v>
+        <v>1.320084591844818</v>
       </c>
       <c r="L21">
-        <v>0.4030277432211875</v>
+        <v>0.3439783300029262</v>
       </c>
       <c r="M21">
-        <v>0.2600507148469049</v>
+        <v>0.3692076676828648</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7753880296432101</v>
+        <v>1.592399458912269</v>
       </c>
       <c r="C22">
-        <v>0.09488879185794019</v>
+        <v>0.1245005985558834</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1638844932600776</v>
+        <v>0.0820696959716436</v>
       </c>
       <c r="F22">
-        <v>2.683540888700634</v>
+        <v>1.878823260872835</v>
       </c>
       <c r="G22">
-        <v>1.588406589591784</v>
+        <v>1.118152001645214</v>
       </c>
       <c r="H22">
-        <v>1.416672106829338</v>
+        <v>0.7260293209461821</v>
       </c>
       <c r="I22">
-        <v>1.487092958178117</v>
+        <v>0.8202459016953298</v>
       </c>
       <c r="J22">
-        <v>0.1133567652302183</v>
+        <v>0.08996905727447668</v>
       </c>
       <c r="K22">
-        <v>0.5172295149215813</v>
+        <v>1.420910384703404</v>
       </c>
       <c r="L22">
-        <v>0.407422539909021</v>
+        <v>0.365480107216186</v>
       </c>
       <c r="M22">
-        <v>0.2666220220788205</v>
+        <v>0.3961429509027354</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7597091033229049</v>
+        <v>1.532504233990608</v>
       </c>
       <c r="C23">
-        <v>0.09383261775032281</v>
+        <v>0.1211410734469354</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1637052074247691</v>
+        <v>0.08046389837082657</v>
       </c>
       <c r="F23">
-        <v>2.67940978821828</v>
+        <v>1.841689196290048</v>
       </c>
       <c r="G23">
-        <v>1.5875981439426</v>
+        <v>1.1016623886335</v>
       </c>
       <c r="H23">
-        <v>1.418107127790833</v>
+        <v>0.7216379786261484</v>
       </c>
       <c r="I23">
-        <v>1.488541899666785</v>
+        <v>0.8149549044007429</v>
       </c>
       <c r="J23">
-        <v>0.1131489192983786</v>
+        <v>0.08974263932102389</v>
       </c>
       <c r="K23">
-        <v>0.5025127734906505</v>
+        <v>1.367008541675773</v>
       </c>
       <c r="L23">
-        <v>0.4050654688500543</v>
+        <v>0.3539746214335224</v>
       </c>
       <c r="M23">
-        <v>0.2631071335083135</v>
+        <v>0.3817389407951595</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7007554408803287</v>
+        <v>1.307745967358329</v>
       </c>
       <c r="C24">
-        <v>0.08979106198508191</v>
+        <v>0.1085490606522583</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1631021844343081</v>
+        <v>0.07450805872124278</v>
       </c>
       <c r="F24">
-        <v>2.665765526740245</v>
+        <v>1.706870522078432</v>
       </c>
       <c r="G24">
-        <v>1.585881778694585</v>
+        <v>1.043805483016939</v>
       </c>
       <c r="H24">
-        <v>1.424456020733004</v>
+        <v>0.7074369333757744</v>
       </c>
       <c r="I24">
-        <v>1.495072224993557</v>
+        <v>0.7978900195515877</v>
       </c>
       <c r="J24">
-        <v>0.1123562170755967</v>
+        <v>0.08888269107771407</v>
       </c>
       <c r="K24">
-        <v>0.4469700576376567</v>
+        <v>1.164687430740173</v>
       </c>
       <c r="L24">
-        <v>0.3963915385057959</v>
+        <v>0.3110203268378342</v>
       </c>
       <c r="M24">
-        <v>0.2499640629727082</v>
+        <v>0.3277697464095439</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6380962630893521</v>
+        <v>1.068917529194238</v>
       </c>
       <c r="C25">
-        <v>0.08534222344727738</v>
+        <v>0.09516732755187007</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1626154348707871</v>
+        <v>0.0683294162385728</v>
       </c>
       <c r="F25">
-        <v>2.65533201995828</v>
+        <v>1.572535468158364</v>
       </c>
       <c r="G25">
-        <v>1.586901344460074</v>
+        <v>0.9901280036952187</v>
       </c>
       <c r="H25">
-        <v>1.433258759159017</v>
+        <v>0.6968253388796768</v>
       </c>
       <c r="I25">
-        <v>1.504344143160765</v>
+        <v>0.7852296373184942</v>
       </c>
       <c r="J25">
-        <v>0.1114897975399565</v>
+        <v>0.08795288007037882</v>
       </c>
       <c r="K25">
-        <v>0.3874857053892242</v>
+        <v>0.9495326299612259</v>
       </c>
       <c r="L25">
-        <v>0.3875810035151517</v>
+        <v>0.2658397138848159</v>
       </c>
       <c r="M25">
-        <v>0.2361531115194708</v>
+        <v>0.270595485194022</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8953644168077801</v>
+        <v>3.417670542977305</v>
       </c>
       <c r="C2">
-        <v>0.08541291065007783</v>
+        <v>0.5888363638148348</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06396898550504559</v>
+        <v>0.06810783670276876</v>
       </c>
       <c r="F2">
-        <v>1.481906609630357</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.9571159729806453</v>
+        <v>0.14086117492689</v>
       </c>
       <c r="H2">
-        <v>0.6926156454283046</v>
+        <v>1.759980408388984E-05</v>
       </c>
       <c r="I2">
-        <v>0.7802947561177049</v>
+        <v>0.0004904756709258606</v>
       </c>
       <c r="J2">
-        <v>0.08726899413952083</v>
+        <v>0.1725104901066672</v>
       </c>
       <c r="K2">
-        <v>0.7929896514471579</v>
+        <v>0.1697522434519785</v>
       </c>
       <c r="L2">
-        <v>0.233397511324398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.229194697598043</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3548853106808565</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.6091029992895045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.778813777559634</v>
+        <v>2.980506873734782</v>
       </c>
       <c r="C3">
-        <v>0.07883082104509498</v>
+        <v>0.538440173968894</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06112151304093949</v>
+        <v>0.06633314061097195</v>
       </c>
       <c r="F3">
-        <v>1.42508316278996</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.9383537575935605</v>
+        <v>0.1411183099079913</v>
       </c>
       <c r="H3">
-        <v>0.6918101679889048</v>
+        <v>5.292704358728084E-05</v>
       </c>
       <c r="I3">
-        <v>0.7794355540137445</v>
+        <v>0.0004363218626091125</v>
       </c>
       <c r="J3">
-        <v>0.08680724228766579</v>
+        <v>0.1774332482917984</v>
       </c>
       <c r="K3">
-        <v>0.6877203122825364</v>
+        <v>0.1817292291863377</v>
       </c>
       <c r="L3">
-        <v>0.2118494476031003</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2014819888736312</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3130264155492739</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6196746187694941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7076688480094333</v>
+        <v>2.711443799733388</v>
       </c>
       <c r="C4">
-        <v>0.0747936902920685</v>
+        <v>0.5076928443735937</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05942316369453238</v>
+        <v>0.06522539097251112</v>
       </c>
       <c r="F4">
-        <v>1.392287322689853</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.9284774696541547</v>
+        <v>0.141674391874318</v>
       </c>
       <c r="H4">
-        <v>0.6922646366005978</v>
+        <v>0.0002121754057053948</v>
       </c>
       <c r="I4">
-        <v>0.780057316038544</v>
+        <v>0.0005604022757346172</v>
       </c>
       <c r="J4">
-        <v>0.08652499180288231</v>
+        <v>0.1807336614580421</v>
       </c>
       <c r="K4">
-        <v>0.6233852695241779</v>
+        <v>0.1894782234630981</v>
       </c>
       <c r="L4">
-        <v>0.1988121664829023</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1846095554718374</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2873454115418639</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6275846229366664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6787670034879625</v>
+        <v>2.601610572211939</v>
       </c>
       <c r="C5">
-        <v>0.07314827514755962</v>
+        <v>0.4959562774692756</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05874323083645017</v>
+        <v>0.06472265338454175</v>
       </c>
       <c r="F5">
-        <v>1.37942526157812</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.9248470564810418</v>
+        <v>0.1417122170846099</v>
       </c>
       <c r="H5">
-        <v>0.6926799852748644</v>
+        <v>0.0003103320558680567</v>
       </c>
       <c r="I5">
-        <v>0.780588998268982</v>
+        <v>0.000715640282551</v>
       </c>
       <c r="J5">
-        <v>0.08641035483934445</v>
+        <v>0.1819906737606232</v>
       </c>
       <c r="K5">
-        <v>0.5972297360751924</v>
+        <v>0.1926099055478501</v>
       </c>
       <c r="L5">
-        <v>0.1935448700337687</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.177766294499861</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2769817724653194</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6302216196547477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6739729135490506</v>
+        <v>2.583341742556911</v>
       </c>
       <c r="C6">
-        <v>0.07287500268655833</v>
+        <v>0.4949274340873728</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05863105105951938</v>
+        <v>0.06458197306235913</v>
       </c>
       <c r="F6">
-        <v>1.377319197071145</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.9242675022448879</v>
+        <v>0.1413777280946427</v>
       </c>
       <c r="H6">
-        <v>0.6927626143766759</v>
+        <v>0.0003292575393545327</v>
       </c>
       <c r="I6">
-        <v>0.7806937908037241</v>
+        <v>0.0008332382651046188</v>
       </c>
       <c r="J6">
-        <v>0.0863913444101243</v>
+        <v>0.1820135008154509</v>
       </c>
       <c r="K6">
-        <v>0.5928899486203534</v>
+        <v>0.1929875200326006</v>
       </c>
       <c r="L6">
-        <v>0.1926728999160474</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1766318302747223</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2753819487147382</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6295473333086292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7072787208777527</v>
+        <v>2.709906277734888</v>
       </c>
       <c r="C7">
-        <v>0.07477150236576335</v>
+        <v>0.5100491447994102</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05941394518883669</v>
+        <v>0.06506369662420486</v>
       </c>
       <c r="F7">
-        <v>1.392111856657934</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.9284269367957876</v>
+        <v>0.1407295599649885</v>
       </c>
       <c r="H7">
-        <v>0.6922693171610632</v>
+        <v>0.000214841263690313</v>
       </c>
       <c r="I7">
-        <v>0.7800633733494564</v>
+        <v>0.0007920123000566548</v>
       </c>
       <c r="J7">
-        <v>0.08652344413651569</v>
+        <v>0.1802334156165948</v>
       </c>
       <c r="K7">
-        <v>0.6230322958123651</v>
+        <v>0.1891196441906891</v>
       </c>
       <c r="L7">
-        <v>0.1987409496356776</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1845171383617483</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2875369059567277</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6245321689164243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8550819103961658</v>
+        <v>3.266984297472277</v>
       </c>
       <c r="C8">
-        <v>0.08314168314993253</v>
+        <v>0.5747915414088993</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06297653838916695</v>
+        <v>0.06729708046612792</v>
       </c>
       <c r="F8">
-        <v>1.461864401306954</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.9502937752069585</v>
+        <v>0.1396219319137799</v>
       </c>
       <c r="H8">
-        <v>0.6921356858315875</v>
+        <v>5.306443051633636E-08</v>
       </c>
       <c r="I8">
-        <v>0.7797533457560277</v>
+        <v>0.0007133402793693122</v>
       </c>
       <c r="J8">
-        <v>0.08710955756154348</v>
+        <v>0.1734740542926545</v>
       </c>
       <c r="K8">
-        <v>0.7566215789759383</v>
+        <v>0.1732911836188236</v>
       </c>
       <c r="L8">
-        <v>0.2259256855990799</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.219607356019079</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3408893453233333</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6083968711147634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.148959486953743</v>
+        <v>4.354952107429654</v>
       </c>
       <c r="C9">
-        <v>0.09965502029732676</v>
+        <v>0.698907193832639</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07037993426688516</v>
+        <v>0.07181370461182368</v>
       </c>
       <c r="F9">
-        <v>1.616420150357101</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.007134634260922</v>
+        <v>0.1425271607052423</v>
       </c>
       <c r="H9">
-        <v>0.6998118975998722</v>
+        <v>0.000760285637271263</v>
       </c>
       <c r="I9">
-        <v>0.7887775383244531</v>
+        <v>0.001563456507630789</v>
       </c>
       <c r="J9">
-        <v>0.08826614751065165</v>
+        <v>0.1634359539761974</v>
       </c>
       <c r="K9">
-        <v>1.021667611908526</v>
+        <v>0.1462100905251065</v>
       </c>
       <c r="L9">
-        <v>0.2809202374958062</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2897339791926754</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4451897054014324</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.5942022794563968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.368426098160626</v>
+        <v>5.15192653408468</v>
       </c>
       <c r="C10">
-        <v>0.1119472698412309</v>
+        <v>0.8021495828021159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07610416415942112</v>
+        <v>0.07233112308507295</v>
       </c>
       <c r="F10">
-        <v>1.742528103013115</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>1.058772057175659</v>
+        <v>0.1421707392854046</v>
       </c>
       <c r="H10">
-        <v>0.7108987272790728</v>
+        <v>0.002241194386541689</v>
       </c>
       <c r="I10">
-        <v>0.8020417015442902</v>
+        <v>0.003242317267027062</v>
       </c>
       <c r="J10">
-        <v>0.08911640509270313</v>
+        <v>0.1550284121419523</v>
       </c>
       <c r="K10">
-        <v>1.219320807571421</v>
+        <v>0.1269702982349799</v>
       </c>
       <c r="L10">
-        <v>0.3225801087235141</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3423264907199197</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5024226222729027</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.5762942543264131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469303451204354</v>
+        <v>5.510688402884114</v>
       </c>
       <c r="C11">
-        <v>0.1175984188587478</v>
+        <v>0.941778344467707</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07877746513272399</v>
+        <v>0.05720299105002935</v>
       </c>
       <c r="F11">
-        <v>1.803036861139702</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.084736627907688</v>
+        <v>0.1057110718107523</v>
       </c>
       <c r="H11">
-        <v>0.7172716666855763</v>
+        <v>0.02073436315328792</v>
       </c>
       <c r="I11">
-        <v>0.8096996247936303</v>
+        <v>0.004307408814073987</v>
       </c>
       <c r="J11">
-        <v>0.08950244044482503</v>
+        <v>0.1319391376565875</v>
       </c>
       <c r="K11">
-        <v>1.310126824002992</v>
+        <v>0.1109720131782183</v>
       </c>
       <c r="L11">
-        <v>0.341859484710838</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3665494203259527</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3698902159289617</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.450820229266057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.507676279907685</v>
+        <v>5.645415737295536</v>
       </c>
       <c r="C12">
-        <v>0.1197491184817423</v>
+        <v>1.041141379659877</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07980038700695857</v>
+        <v>0.05504081517387016</v>
       </c>
       <c r="F12">
-        <v>1.826438729327336</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>1.094954313896025</v>
+        <v>0.08007574966182318</v>
       </c>
       <c r="H12">
-        <v>0.7198893996074673</v>
+        <v>0.05922512317581408</v>
       </c>
       <c r="I12">
-        <v>0.8128495978517023</v>
+        <v>0.004444874400094889</v>
       </c>
       <c r="J12">
-        <v>0.08964843453725635</v>
+        <v>0.1165867242279184</v>
       </c>
       <c r="K12">
-        <v>1.344663689425346</v>
+        <v>0.1075340193874768</v>
       </c>
       <c r="L12">
-        <v>0.349212092840844</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3757706630829105</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2638411217995866</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.3643767060936796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.499403933422343</v>
+        <v>5.614118607823286</v>
       </c>
       <c r="C13">
-        <v>0.1192854123222205</v>
+        <v>1.118158936890666</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07957960044109313</v>
+        <v>0.06222536074994878</v>
       </c>
       <c r="F13">
-        <v>1.821376376103927</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>1.092736111224923</v>
+        <v>0.05956788832492421</v>
       </c>
       <c r="H13">
-        <v>0.7193163088856522</v>
+        <v>0.1146675289859189</v>
       </c>
       <c r="I13">
-        <v>0.8121597946041348</v>
+        <v>0.004178960144187727</v>
       </c>
       <c r="J13">
-        <v>0.089617001847202</v>
+        <v>0.1053352983728395</v>
       </c>
       <c r="K13">
-        <v>1.337218485856624</v>
+        <v>0.1124931836116829</v>
       </c>
       <c r="L13">
-        <v>0.3476261882523346</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3737824497789717</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1729845809435133</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.2973011930476943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.472456805613717</v>
+        <v>5.5169294571308</v>
       </c>
       <c r="C14">
-        <v>0.1177751298021192</v>
+        <v>1.163197845704474</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07886140528815844</v>
+        <v>0.07274312454783249</v>
       </c>
       <c r="F14">
-        <v>1.804952135820656</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>1.085569339515231</v>
+        <v>0.04793396761156643</v>
       </c>
       <c r="H14">
-        <v>0.7174828521190619</v>
+        <v>0.1637608298440938</v>
       </c>
       <c r="I14">
-        <v>0.8099536634309246</v>
+        <v>0.003899375952450157</v>
       </c>
       <c r="J14">
-        <v>0.08951445573717365</v>
+        <v>0.09946358878518424</v>
       </c>
       <c r="K14">
-        <v>1.312965040585283</v>
+        <v>0.1203943015277602</v>
       </c>
       <c r="L14">
-        <v>0.3424633190535928</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3673070506909895</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1193104450026112</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2602732074783987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.455974127496404</v>
+        <v>5.457775429635774</v>
       </c>
       <c r="C15">
-        <v>0.1168515045127165</v>
+        <v>1.169585327863047</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.078422890112261</v>
+        <v>0.07593157219485924</v>
       </c>
       <c r="F15">
-        <v>1.794956572065402</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.081230604153362</v>
+        <v>0.0455508355515839</v>
       </c>
       <c r="H15">
-        <v>0.7163868426694222</v>
+        <v>0.1761541344002069</v>
       </c>
       <c r="I15">
-        <v>0.808635426288312</v>
+        <v>0.003853176530151714</v>
       </c>
       <c r="J15">
-        <v>0.08945161617460684</v>
+        <v>0.09859345302035649</v>
       </c>
       <c r="K15">
-        <v>1.29812940855436</v>
+        <v>0.1234682643279399</v>
       </c>
       <c r="L15">
-        <v>0.339307821959224</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3633471788389144</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1072673703325933</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.2533620375836207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3618564031365</v>
+        <v>5.120043290737499</v>
       </c>
       <c r="C16">
-        <v>0.111579331488187</v>
+        <v>1.10799248191833</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07593090560895277</v>
+        <v>0.0738400640498309</v>
       </c>
       <c r="F16">
-        <v>1.738640009704923</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.057127484697745</v>
+        <v>0.0489490997217068</v>
       </c>
       <c r="H16">
-        <v>0.7105101030099945</v>
+        <v>0.162802528364324</v>
       </c>
       <c r="I16">
-        <v>0.8015753030856487</v>
+        <v>0.003225298329835979</v>
       </c>
       <c r="J16">
-        <v>0.08909115482385843</v>
+        <v>0.1038355972855278</v>
       </c>
       <c r="K16">
-        <v>1.213406242676484</v>
+        <v>0.1293471311088172</v>
       </c>
       <c r="L16">
-        <v>0.3213271560796613</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3407499411682764</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1039308116856006</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2713544447339089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304400680623615</v>
+        <v>4.913280721124522</v>
       </c>
       <c r="C17">
-        <v>0.1083617253063025</v>
+        <v>1.036957102786772</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07442034445881518</v>
+        <v>0.06579146743076514</v>
       </c>
       <c r="F17">
-        <v>1.704921555937787</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.042995133530283</v>
+        <v>0.05748621288609002</v>
       </c>
       <c r="H17">
-        <v>0.7072545345475731</v>
+        <v>0.1247000877721121</v>
       </c>
       <c r="I17">
-        <v>0.7976714681709183</v>
+        <v>0.00293939567825241</v>
       </c>
       <c r="J17">
-        <v>0.08886977469317614</v>
+        <v>0.1109065372748503</v>
       </c>
       <c r="K17">
-        <v>1.161675205142416</v>
+        <v>0.1294275286951549</v>
       </c>
       <c r="L17">
-        <v>0.3103839008140312</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3269675585708498</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1277824525527151</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.3041518538272499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271450154828244</v>
+        <v>4.795251134620742</v>
       </c>
       <c r="C18">
-        <v>0.1065164859020058</v>
+        <v>0.9500255197344813</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07355799389109308</v>
+        <v>0.05667014460365039</v>
       </c>
       <c r="F18">
-        <v>1.685820938200777</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.035097577638538</v>
+        <v>0.07365144006371693</v>
       </c>
       <c r="H18">
-        <v>0.7055063010784863</v>
+        <v>0.07181945988649829</v>
       </c>
       <c r="I18">
-        <v>0.7955778783493344</v>
+        <v>0.002608716605696948</v>
       </c>
       <c r="J18">
-        <v>0.0887423770877831</v>
+        <v>0.1214049268251571</v>
       </c>
       <c r="K18">
-        <v>1.132003459945906</v>
+        <v>0.1269325186900456</v>
       </c>
       <c r="L18">
-        <v>0.3041202069107243</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.319068013990389</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1869933976812703</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.3603584272712865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.260309570687241</v>
+        <v>4.75677696175643</v>
       </c>
       <c r="C19">
-        <v>0.1058925905538075</v>
+        <v>0.8668746023093092</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07326711193397628</v>
+        <v>0.05482799369871233</v>
       </c>
       <c r="F19">
-        <v>1.67940310431311</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>1.032462409556587</v>
+        <v>0.09661366292564466</v>
       </c>
       <c r="H19">
-        <v>0.7049353379795633</v>
+        <v>0.02681547416945307</v>
       </c>
       <c r="I19">
-        <v>0.7948946116690294</v>
+        <v>0.002778537430485173</v>
       </c>
       <c r="J19">
-        <v>0.08869923358231802</v>
+        <v>0.1345827514196927</v>
       </c>
       <c r="K19">
-        <v>1.121970651167771</v>
+        <v>0.1266869357957345</v>
       </c>
       <c r="L19">
-        <v>0.302004540429877</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3163979594497093</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.285247989214696</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.4366365758817636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.310506793004123</v>
+        <v>4.942541158941424</v>
       </c>
       <c r="C20">
-        <v>0.1087036664026542</v>
+        <v>0.7835898589831345</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07458047073684781</v>
+        <v>0.07163401782129952</v>
       </c>
       <c r="F20">
-        <v>1.708480325364164</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.044475431628442</v>
+        <v>0.1390650315331285</v>
       </c>
       <c r="H20">
-        <v>0.7075881397939412</v>
+        <v>0.001762364735516275</v>
       </c>
       <c r="I20">
-        <v>0.7980712122495888</v>
+        <v>0.00345210180742761</v>
       </c>
       <c r="J20">
-        <v>0.08889334835037133</v>
+        <v>0.155502016446647</v>
       </c>
       <c r="K20">
-        <v>1.167173360322636</v>
+        <v>0.1307893002861542</v>
       </c>
       <c r="L20">
-        <v>0.3115456311294338</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.328431808578415</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4875963081084933</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.5705837697612282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.480366948277009</v>
+        <v>5.554373792332797</v>
       </c>
       <c r="C21">
-        <v>0.118218426584086</v>
+        <v>0.8470127310635007</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07907206364179231</v>
+        <v>0.07621453732624772</v>
       </c>
       <c r="F21">
-        <v>1.809762768297531</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.087663684613446</v>
+        <v>0.1471689205596292</v>
       </c>
       <c r="H21">
-        <v>0.7180157234035534</v>
+        <v>0.003106817515494797</v>
       </c>
       <c r="I21">
-        <v>0.8105947319915145</v>
+        <v>0.004988717375402629</v>
       </c>
       <c r="J21">
-        <v>0.08954458181617753</v>
+        <v>0.1535560880579112</v>
       </c>
       <c r="K21">
-        <v>1.320084591844818</v>
+        <v>0.1191749483559814</v>
       </c>
       <c r="L21">
-        <v>0.3439783300029262</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3692076676828648</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5622322700377111</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.5840331195110622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.592399458912269</v>
+        <v>5.954088293507084</v>
       </c>
       <c r="C22">
-        <v>0.1245005985558834</v>
+        <v>0.8901615745207607</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0820696959716436</v>
+        <v>0.07804222902790947</v>
       </c>
       <c r="F22">
-        <v>1.878823260872835</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.118152001645214</v>
+        <v>0.1519446615115925</v>
       </c>
       <c r="H22">
-        <v>0.7260293209461821</v>
+        <v>0.004211841310621134</v>
       </c>
       <c r="I22">
-        <v>0.8202459016953298</v>
+        <v>0.005912729718123622</v>
       </c>
       <c r="J22">
-        <v>0.08996905727447668</v>
+        <v>0.1520562729220529</v>
       </c>
       <c r="K22">
-        <v>1.420910384703404</v>
+        <v>0.1117805677826178</v>
       </c>
       <c r="L22">
-        <v>0.365480107216186</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3961429509027354</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6005441688249249</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.591234347397986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.532504233990608</v>
+        <v>5.740833930358122</v>
       </c>
       <c r="C23">
-        <v>0.1211410734469354</v>
+        <v>0.8639634317767673</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08046389837082657</v>
+        <v>0.07724134025468565</v>
       </c>
       <c r="F23">
-        <v>1.841689196290048</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.1016623886335</v>
+        <v>0.1504170292561327</v>
       </c>
       <c r="H23">
-        <v>0.7216379786261484</v>
+        <v>0.003608066880599614</v>
       </c>
       <c r="I23">
-        <v>0.8149549044007429</v>
+        <v>0.0051219220358103</v>
       </c>
       <c r="J23">
-        <v>0.08974263932102389</v>
+        <v>0.1533991638662044</v>
       </c>
       <c r="K23">
-        <v>1.367008541675773</v>
+        <v>0.1160627719791743</v>
       </c>
       <c r="L23">
-        <v>0.3539746214335224</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3817389407951595</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5796791491151225</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.5906925862610848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307745967358329</v>
+        <v>4.932994292152785</v>
       </c>
       <c r="C24">
-        <v>0.1085490606522583</v>
+        <v>0.7702788504115006</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07450805872124278</v>
+        <v>0.07392234163233269</v>
       </c>
       <c r="F24">
-        <v>1.706870522078432</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.043805483016939</v>
+        <v>0.144100934296965</v>
       </c>
       <c r="H24">
-        <v>0.7074369333757744</v>
+        <v>0.00170858728454637</v>
       </c>
       <c r="I24">
-        <v>0.7978900195515877</v>
+        <v>0.003001346257126336</v>
       </c>
       <c r="J24">
-        <v>0.08888269107771407</v>
+        <v>0.1582756986584926</v>
       </c>
       <c r="K24">
-        <v>1.164687430740173</v>
+        <v>0.1326551549203074</v>
       </c>
       <c r="L24">
-        <v>0.3110203268378342</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3277697464095439</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5015263238037875</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.5870659165538399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.068917529194238</v>
+        <v>4.060913622609064</v>
       </c>
       <c r="C25">
-        <v>0.09516732755187007</v>
+        <v>0.6698181595344863</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0683294162385728</v>
+        <v>0.07033324480242698</v>
       </c>
       <c r="F25">
-        <v>1.572535468158364</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.9901280036952187</v>
+        <v>0.1396661995185227</v>
       </c>
       <c r="H25">
-        <v>0.6968253388796768</v>
+        <v>0.000412236269277888</v>
       </c>
       <c r="I25">
-        <v>0.7852296373184942</v>
+        <v>0.001568960694720012</v>
       </c>
       <c r="J25">
-        <v>0.08795288007037882</v>
+        <v>0.1649856129945206</v>
       </c>
       <c r="K25">
-        <v>0.9495326299612259</v>
+        <v>0.1525193066023141</v>
       </c>
       <c r="L25">
-        <v>0.2658397138848159</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.270595485194022</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4175391009456035</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.5912067413302111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.417670542977305</v>
+        <v>3.421455974101661</v>
       </c>
       <c r="C2">
-        <v>0.5888363638148348</v>
+        <v>0.5767222111928447</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06810783670276876</v>
+        <v>0.06653678134458829</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.14086117492689</v>
+        <v>0.1229964001087254</v>
       </c>
       <c r="H2">
-        <v>1.759980408388984E-05</v>
+        <v>4.419255489584994E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004904756709258606</v>
+        <v>0.0006601707371496346</v>
       </c>
       <c r="J2">
-        <v>0.1725104901066672</v>
+        <v>0.2087459309837598</v>
       </c>
       <c r="K2">
-        <v>0.1697522434519785</v>
+        <v>0.1643727886522046</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09892964834043916</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03471632186747836</v>
       </c>
       <c r="N2">
-        <v>0.3548853106808565</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3573723977764871</v>
       </c>
       <c r="Q2">
-        <v>0.6091029992895045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6022210633889671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.980506873734782</v>
+        <v>2.984855497983006</v>
       </c>
       <c r="C3">
-        <v>0.538440173968894</v>
+        <v>0.5212592334035833</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06633314061097195</v>
+        <v>0.06506723276513959</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1411183099079913</v>
+        <v>0.1238214158432349</v>
       </c>
       <c r="H3">
-        <v>5.292704358728084E-05</v>
+        <v>1.641691306741855E-05</v>
       </c>
       <c r="I3">
-        <v>0.0004363218626091125</v>
+        <v>0.0005053512738606436</v>
       </c>
       <c r="J3">
-        <v>0.1774332482917984</v>
+        <v>0.2124638442925963</v>
       </c>
       <c r="K3">
-        <v>0.1817292291863377</v>
+        <v>0.1755750886882472</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1042051950615894</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03911883111261028</v>
       </c>
       <c r="N3">
-        <v>0.3130264155492739</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.315312265625181</v>
       </c>
       <c r="Q3">
-        <v>0.6196746187694941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6144583405397555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.711443799733388</v>
+        <v>2.716056904293509</v>
       </c>
       <c r="C4">
-        <v>0.5076928443735937</v>
+        <v>0.4875445096787701</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06522539097251112</v>
+        <v>0.06414413213683545</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.141674391874318</v>
+        <v>0.1247090052860429</v>
       </c>
       <c r="H4">
-        <v>0.0002121754057053948</v>
+        <v>0.000117841880954872</v>
       </c>
       <c r="I4">
-        <v>0.0005604022757346172</v>
+        <v>0.0005447051896574351</v>
       </c>
       <c r="J4">
-        <v>0.1807336614580421</v>
+        <v>0.2148819289690245</v>
       </c>
       <c r="K4">
-        <v>0.1894782234630981</v>
+        <v>0.182797614740128</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1077784355052911</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04225344829453803</v>
       </c>
       <c r="N4">
-        <v>0.2873454115418639</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2895218553506993</v>
       </c>
       <c r="Q4">
-        <v>0.6275846229366664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6230983747468031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601610572211939</v>
+        <v>2.606312620905442</v>
       </c>
       <c r="C5">
-        <v>0.4959562774692756</v>
+        <v>0.4746092437341929</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06472265338454175</v>
+        <v>0.06371723853182587</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1417122170846099</v>
+        <v>0.1248880798813872</v>
       </c>
       <c r="H5">
-        <v>0.0003103320558680567</v>
+        <v>0.0001877761112831777</v>
       </c>
       <c r="I5">
-        <v>0.000715640282551</v>
+        <v>0.0006725386405497247</v>
       </c>
       <c r="J5">
-        <v>0.1819906737606232</v>
+        <v>0.2157403579767667</v>
       </c>
       <c r="K5">
-        <v>0.1926099055478501</v>
+        <v>0.1857026955512837</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1092184153887183</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04364414393804217</v>
       </c>
       <c r="N5">
-        <v>0.2769817724653194</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2791139784743564</v>
       </c>
       <c r="Q5">
-        <v>0.6302216196547477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6259810415118636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.583341742556911</v>
+        <v>2.588056402061568</v>
       </c>
       <c r="C6">
-        <v>0.4949274340873728</v>
+        <v>0.4733522011395621</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06458197306235913</v>
+        <v>0.06359066067259622</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1413777280946427</v>
+        <v>0.1245902552929579</v>
       </c>
       <c r="H6">
-        <v>0.0003292575393545327</v>
+        <v>0.0002015956760520465</v>
       </c>
       <c r="I6">
-        <v>0.0008332382651046188</v>
+        <v>0.0008020991480615081</v>
       </c>
       <c r="J6">
-        <v>0.1820135008154509</v>
+        <v>0.2156896004221203</v>
       </c>
       <c r="K6">
-        <v>0.1929875200326006</v>
+        <v>0.1860424266232283</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.109341756258293</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04388910004326529</v>
       </c>
       <c r="N6">
-        <v>0.2753819487147382</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.277502719835681</v>
       </c>
       <c r="Q6">
-        <v>0.6295473333086292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6253677031222651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.709906277734888</v>
+        <v>2.714488583914317</v>
       </c>
       <c r="C7">
-        <v>0.5100491447994102</v>
+        <v>0.4893700982432563</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06506369662420486</v>
+        <v>0.06399019016283525</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1407295599649885</v>
+        <v>0.1252035311123478</v>
       </c>
       <c r="H7">
-        <v>0.000214841263690313</v>
+        <v>0.0001204285527151017</v>
       </c>
       <c r="I7">
-        <v>0.0007920123000566548</v>
+        <v>0.0008199215469977261</v>
       </c>
       <c r="J7">
-        <v>0.1802334156165948</v>
+        <v>0.2120035784845484</v>
       </c>
       <c r="K7">
-        <v>0.1891196441906891</v>
+        <v>0.1823066987732993</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1073758332039834</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04228608609427487</v>
       </c>
       <c r="N7">
-        <v>0.2875369059567277</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2896410503524294</v>
       </c>
       <c r="Q7">
-        <v>0.6245321689164243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.6184078295349238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.266984297472277</v>
+        <v>3.270878207145358</v>
       </c>
       <c r="C8">
-        <v>0.5747915414088993</v>
+        <v>0.5593651840871416</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06729708046612792</v>
+        <v>0.06585044237952253</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1396219319137799</v>
+        <v>0.1266974688032718</v>
       </c>
       <c r="H8">
-        <v>5.306443051633636E-08</v>
+        <v>8.142035947011905E-06</v>
       </c>
       <c r="I8">
-        <v>0.0007133402793693122</v>
+        <v>0.0009063646475402365</v>
       </c>
       <c r="J8">
-        <v>0.1734740542926545</v>
+        <v>0.2017997410337351</v>
       </c>
       <c r="K8">
-        <v>0.1732911836188236</v>
+        <v>0.1672755003254411</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1000702756410403</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03606816002451715</v>
       </c>
       <c r="N8">
-        <v>0.3408893453233333</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3430893258431809</v>
       </c>
       <c r="Q8">
-        <v>0.6083968711147634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.5966865320782802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.354952107429654</v>
+        <v>4.3568334204096</v>
       </c>
       <c r="C9">
-        <v>0.698907193832639</v>
+        <v>0.6965940669292365</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07181370461182368</v>
+        <v>0.06959334976003184</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1425271607052423</v>
+        <v>0.1293438747162767</v>
       </c>
       <c r="H9">
-        <v>0.000760285637271263</v>
+        <v>0.0008027807526538311</v>
       </c>
       <c r="I9">
-        <v>0.001563456507630789</v>
+        <v>0.001806721467187522</v>
       </c>
       <c r="J9">
-        <v>0.1634359539761974</v>
+        <v>0.1919774536548076</v>
       </c>
       <c r="K9">
-        <v>0.1462100905251065</v>
+        <v>0.1417747253150354</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08922318319169431</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02741727683054229</v>
       </c>
       <c r="N9">
-        <v>0.4451897054014324</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4479117835309978</v>
       </c>
       <c r="Q9">
-        <v>0.5942022794563968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.5751100856390678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.15192653408468</v>
+        <v>5.151519345946724</v>
       </c>
       <c r="C10">
-        <v>0.8021495828021159</v>
+        <v>0.8062495561781589</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07233112308507295</v>
+        <v>0.06970644489077138</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1421707392854046</v>
+        <v>0.137688835931904</v>
       </c>
       <c r="H10">
-        <v>0.002241194386541689</v>
+        <v>0.002181752597502307</v>
       </c>
       <c r="I10">
-        <v>0.003242317267027062</v>
+        <v>0.003385007671087514</v>
       </c>
       <c r="J10">
-        <v>0.1550284121419523</v>
+        <v>0.1720225845623666</v>
       </c>
       <c r="K10">
-        <v>0.1269702982349799</v>
+        <v>0.1233154249807775</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0823761777720502</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02253024497253708</v>
       </c>
       <c r="N10">
-        <v>0.5024226222729027</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5049734008055253</v>
       </c>
       <c r="Q10">
-        <v>0.5762942543264131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.5430601231253718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.510688402884114</v>
+        <v>5.509056692591685</v>
       </c>
       <c r="C11">
-        <v>0.941778344467707</v>
+        <v>0.9314943803423432</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05720299105002935</v>
+        <v>0.0552292463225057</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1057110718107523</v>
+        <v>0.1210947594250271</v>
       </c>
       <c r="H11">
-        <v>0.02073436315328792</v>
+        <v>0.02061716846147377</v>
       </c>
       <c r="I11">
-        <v>0.004307408814073987</v>
+        <v>0.004454232491770682</v>
       </c>
       <c r="J11">
-        <v>0.1319391376565875</v>
+        <v>0.1388419637139933</v>
       </c>
       <c r="K11">
-        <v>0.1109720131782183</v>
+        <v>0.1106131005498916</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07905961746807799</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01748638828898641</v>
       </c>
       <c r="N11">
-        <v>0.3698902159289617</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3701351077777417</v>
       </c>
       <c r="Q11">
-        <v>0.450820229266057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.4166264528807773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.645415737295536</v>
+        <v>5.643365395655735</v>
       </c>
       <c r="C12">
-        <v>1.041141379659877</v>
+        <v>1.016926177837433</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05504081517387016</v>
+        <v>0.05306172685280286</v>
       </c>
       <c r="F12">
-        <v>2.518780942186353</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.08007574966182318</v>
+        <v>0.1023786363599726</v>
       </c>
       <c r="H12">
-        <v>0.05922512317581408</v>
+        <v>0.05909466574807709</v>
       </c>
       <c r="I12">
-        <v>0.004444874400094889</v>
+        <v>0.00455465238760322</v>
       </c>
       <c r="J12">
-        <v>0.1165867242279184</v>
+        <v>0.1278801640245368</v>
       </c>
       <c r="K12">
-        <v>0.1075340193874768</v>
+        <v>0.109467114334918</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08002905161524776</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01607969045636293</v>
       </c>
       <c r="N12">
-        <v>0.2638411217995866</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.262868426126758</v>
       </c>
       <c r="Q12">
-        <v>0.3643767060936796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.3377799900054015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.614118607823286</v>
+        <v>5.612364919829702</v>
       </c>
       <c r="C13">
-        <v>1.118158936890666</v>
+        <v>1.081165469637114</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06222536074994878</v>
+        <v>0.05983783496586348</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.05956788832492421</v>
+        <v>0.07775404504265282</v>
       </c>
       <c r="H13">
-        <v>0.1146675289859189</v>
+        <v>0.1145587516057844</v>
       </c>
       <c r="I13">
-        <v>0.004178960144187727</v>
+        <v>0.004308966558244087</v>
       </c>
       <c r="J13">
-        <v>0.1053352983728395</v>
+        <v>0.1256886620487471</v>
       </c>
       <c r="K13">
-        <v>0.1124931836116829</v>
+        <v>0.1150204566729887</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08274889113298833</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0172328546521241</v>
       </c>
       <c r="N13">
-        <v>0.1729845809435133</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.171552571953427</v>
       </c>
       <c r="Q13">
-        <v>0.2973011930476943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.2849180174463442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.5169294571308</v>
+        <v>5.51568484345546</v>
       </c>
       <c r="C14">
-        <v>1.163197845704474</v>
+        <v>1.117682993765982</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07274312454783249</v>
+        <v>0.06986140942214902</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.04793396761156643</v>
+        <v>0.05972447859119256</v>
       </c>
       <c r="H14">
-        <v>0.1637608298440938</v>
+        <v>0.1636787847556604</v>
       </c>
       <c r="I14">
-        <v>0.003899375952450157</v>
+        <v>0.004081340213406115</v>
       </c>
       <c r="J14">
-        <v>0.09946358878518424</v>
+        <v>0.1259743083397494</v>
       </c>
       <c r="K14">
-        <v>0.1203943015277602</v>
+        <v>0.1219183241473569</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08519294491100027</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01944146098771338</v>
       </c>
       <c r="N14">
-        <v>0.1193104450026112</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1178897613893284</v>
       </c>
       <c r="Q14">
-        <v>0.2602732074783987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.2585087950820082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.457775429635774</v>
+        <v>5.45680126835174</v>
       </c>
       <c r="C15">
-        <v>1.169585327863047</v>
+        <v>1.122404620462305</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07593157219485924</v>
+        <v>0.07293214368725387</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0455508355515839</v>
+        <v>0.05455761608354237</v>
       </c>
       <c r="H15">
-        <v>0.1761541344002069</v>
+        <v>0.1760850710495561</v>
       </c>
       <c r="I15">
-        <v>0.003853176530151714</v>
+        <v>0.004081187912441386</v>
       </c>
       <c r="J15">
-        <v>0.09859345302035649</v>
+        <v>0.1267374544258167</v>
       </c>
       <c r="K15">
-        <v>0.1234682643279399</v>
+        <v>0.1243163969286343</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08578649476738676</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02037107608794297</v>
       </c>
       <c r="N15">
-        <v>0.1072673703325933</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1059238265996143</v>
       </c>
       <c r="Q15">
-        <v>0.2533620375836207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.2548375037894601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.120043290737499</v>
+        <v>5.12041203722282</v>
       </c>
       <c r="C16">
-        <v>1.10799248191833</v>
+        <v>1.065611632914283</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0738400640498309</v>
+        <v>0.07120187961105984</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0489490997217068</v>
+        <v>0.04806467802212921</v>
       </c>
       <c r="H16">
-        <v>0.162802528364324</v>
+        <v>0.1627896453375541</v>
       </c>
       <c r="I16">
-        <v>0.003225298329835979</v>
+        <v>0.003570117787117688</v>
       </c>
       <c r="J16">
-        <v>0.1038355972855278</v>
+        <v>0.1367215145736456</v>
       </c>
       <c r="K16">
-        <v>0.1293471311088172</v>
+        <v>0.1278263238795248</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08484212625636545</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02264307843942959</v>
       </c>
       <c r="N16">
-        <v>0.1039308116856006</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1030492422588836</v>
       </c>
       <c r="Q16">
-        <v>0.2713544447339089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.2809876383219745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.913280721124522</v>
+        <v>4.914326454843206</v>
       </c>
       <c r="C17">
-        <v>1.036957102786772</v>
+        <v>1.001869948320717</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06579146743076514</v>
+        <v>0.06366018157949149</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.05748621288609002</v>
+        <v>0.05245233594432008</v>
       </c>
       <c r="H17">
-        <v>0.1247000877721121</v>
+        <v>0.1247084743570355</v>
       </c>
       <c r="I17">
-        <v>0.00293939567825241</v>
+        <v>0.00333827532012787</v>
       </c>
       <c r="J17">
-        <v>0.1109065372748503</v>
+        <v>0.1468213328876189</v>
       </c>
       <c r="K17">
-        <v>0.1294275286951549</v>
+        <v>0.1275568216377199</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08355548263241896</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02310336565731141</v>
       </c>
       <c r="N17">
-        <v>0.1277824525527151</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1272232050579234</v>
       </c>
       <c r="Q17">
-        <v>0.3041518538272499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.3155143301250405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.795251134620742</v>
+        <v>4.796585570044897</v>
       </c>
       <c r="C18">
-        <v>0.9500255197344813</v>
+        <v>0.9257413119719047</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05667014460365039</v>
+        <v>0.05503758255506419</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.07365144006371693</v>
+        <v>0.0657621892322453</v>
       </c>
       <c r="H18">
-        <v>0.07181945988649829</v>
+        <v>0.07183614951736672</v>
       </c>
       <c r="I18">
-        <v>0.002608716605696948</v>
+        <v>0.002979041715812869</v>
       </c>
       <c r="J18">
-        <v>0.1214049268251571</v>
+        <v>0.1584610452474706</v>
       </c>
       <c r="K18">
-        <v>0.1269325186900456</v>
+        <v>0.1256029279522419</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08245527228014637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02251412920256035</v>
       </c>
       <c r="N18">
-        <v>0.1869933976812703</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1869364600442935</v>
       </c>
       <c r="Q18">
-        <v>0.3603584272712865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.3689642534890396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.75677696175643</v>
+        <v>4.758080455500419</v>
       </c>
       <c r="C19">
-        <v>0.8668746023093092</v>
+        <v>0.8545852390147672</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05482799369871233</v>
+        <v>0.05329077474063476</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.09661366292564466</v>
+        <v>0.0858164080472541</v>
       </c>
       <c r="H19">
-        <v>0.02681547416945307</v>
+        <v>0.02683419400539577</v>
       </c>
       <c r="I19">
-        <v>0.002778537430485173</v>
+        <v>0.003172816946948487</v>
       </c>
       <c r="J19">
-        <v>0.1345827514196927</v>
+        <v>0.1710127104743542</v>
       </c>
       <c r="K19">
-        <v>0.1266869357957345</v>
+        <v>0.1254259081303124</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08255683309557194</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02234614920581457</v>
       </c>
       <c r="N19">
-        <v>0.285247989214696</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2860931959540949</v>
       </c>
       <c r="Q19">
-        <v>0.4366365758817636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.4376134338403261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.942541158941424</v>
+        <v>4.942916543545039</v>
       </c>
       <c r="C20">
-        <v>0.7835898589831345</v>
+        <v>0.7874143750186704</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07163401782129952</v>
+        <v>0.06912774517920539</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1390650315331285</v>
+        <v>0.1272647199732759</v>
       </c>
       <c r="H20">
-        <v>0.001762364735516275</v>
+        <v>0.001745650764918505</v>
       </c>
       <c r="I20">
-        <v>0.00345210180742761</v>
+        <v>0.003803085915414783</v>
       </c>
       <c r="J20">
-        <v>0.155502016446647</v>
+        <v>0.1826859050575464</v>
       </c>
       <c r="K20">
-        <v>0.1307893002861542</v>
+        <v>0.1274513391990295</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08380106963052203</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.023480694015662</v>
       </c>
       <c r="N20">
-        <v>0.4875963081084933</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4903637447137186</v>
       </c>
       <c r="Q20">
-        <v>0.5705837697612282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.5476445764714697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.554373792332797</v>
+        <v>5.552006445370523</v>
       </c>
       <c r="C21">
-        <v>0.8470127310635007</v>
+        <v>0.8494772948119191</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07621453732624772</v>
+        <v>0.07330569543669618</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1471689205596292</v>
+        <v>0.1707855852621947</v>
       </c>
       <c r="H21">
-        <v>0.003106817515494797</v>
+        <v>0.002918614594702718</v>
       </c>
       <c r="I21">
-        <v>0.004988717375402629</v>
+        <v>0.005111618600670553</v>
       </c>
       <c r="J21">
-        <v>0.1535560880579112</v>
+        <v>0.1427618442130765</v>
       </c>
       <c r="K21">
-        <v>0.1191749483559814</v>
+        <v>0.1142218173563094</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07948758647225584</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02026029824714382</v>
       </c>
       <c r="N21">
-        <v>0.5622322700377111</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5640684097308224</v>
       </c>
       <c r="Q21">
-        <v>0.5840331195110622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.5162985861626623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.954088293507084</v>
+        <v>5.949720387580442</v>
       </c>
       <c r="C22">
-        <v>0.8901615745207607</v>
+        <v>0.8905137432828667</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07804222902790947</v>
+        <v>0.07497745240426745</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1519446615115925</v>
+        <v>0.2047133975054294</v>
       </c>
       <c r="H22">
-        <v>0.004211841310621134</v>
+        <v>0.003873049259020656</v>
       </c>
       <c r="I22">
-        <v>0.005912729718123622</v>
+        <v>0.005769397276819355</v>
       </c>
       <c r="J22">
-        <v>0.1520562729220529</v>
+        <v>0.1259297169564011</v>
       </c>
       <c r="K22">
-        <v>0.1117805677826178</v>
+        <v>0.1058600035159212</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07714044135987375</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01832892802115449</v>
       </c>
       <c r="N22">
-        <v>0.6005441688249249</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6015576721690081</v>
       </c>
       <c r="Q22">
-        <v>0.591234347397986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.4925565151469442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.740833930358122</v>
+        <v>5.737634957906266</v>
       </c>
       <c r="C23">
-        <v>0.8639634317767673</v>
+        <v>0.8666701247611854</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07724134025468565</v>
+        <v>0.07422414870966421</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1504170292561327</v>
+        <v>0.1828703866668562</v>
       </c>
       <c r="H23">
-        <v>0.003608066880599614</v>
+        <v>0.003358761192450044</v>
       </c>
       <c r="I23">
-        <v>0.0051219220358103</v>
+        <v>0.005069343410292859</v>
       </c>
       <c r="J23">
-        <v>0.1533991638662044</v>
+        <v>0.1362210987693313</v>
       </c>
       <c r="K23">
-        <v>0.1160627719791743</v>
+        <v>0.1107036097132332</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07842315317470927</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01958901327680262</v>
       </c>
       <c r="N23">
-        <v>0.5796791491151225</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5813096412569507</v>
       </c>
       <c r="Q23">
-        <v>0.5906925862610848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.5121671931255918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.932994292152785</v>
+        <v>4.933372935318573</v>
       </c>
       <c r="C24">
-        <v>0.7702788504115006</v>
+        <v>0.7751193122176687</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07392234163233269</v>
+        <v>0.07129715530876979</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.144100934296965</v>
+        <v>0.1315445972578289</v>
       </c>
       <c r="H24">
-        <v>0.00170858728454637</v>
+        <v>0.001691735188298626</v>
       </c>
       <c r="I24">
-        <v>0.003001346257126336</v>
+        <v>0.003252064723138659</v>
       </c>
       <c r="J24">
-        <v>0.1582756986584926</v>
+        <v>0.185438210571057</v>
       </c>
       <c r="K24">
-        <v>0.1326551549203074</v>
+        <v>0.128932482005335</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08434703016615552</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02405221977242844</v>
       </c>
       <c r="N24">
-        <v>0.5015263238037875</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5045015233662298</v>
       </c>
       <c r="Q24">
-        <v>0.5870659165538399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.5625194827465094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.060913622609064</v>
+        <v>4.063485245432446</v>
       </c>
       <c r="C25">
-        <v>0.6698181595344863</v>
+        <v>0.6643875925909981</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07033324480242698</v>
+        <v>0.06833206172107253</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1396661995185227</v>
+        <v>0.1246156029430736</v>
       </c>
       <c r="H25">
-        <v>0.000412236269277888</v>
+        <v>0.0004662983170584667</v>
       </c>
       <c r="I25">
-        <v>0.001568960694720012</v>
+        <v>0.001909357816997748</v>
       </c>
       <c r="J25">
-        <v>0.1649856129945206</v>
+        <v>0.1967545042785446</v>
       </c>
       <c r="K25">
-        <v>0.1525193066023141</v>
+        <v>0.1479400742484813</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09166162558281643</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02926787670490705</v>
       </c>
       <c r="N25">
-        <v>0.4175391009456035</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4201779549834868</v>
       </c>
       <c r="Q25">
-        <v>0.5912067413302111</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.5770603817062891</v>
       </c>
     </row>
   </sheetData>
